--- a/public/tmp/legislation.xlsx
+++ b/public/tmp/legislation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>January-2022</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>October-2022</t>
+  </si>
+  <si>
+    <t>November-2022</t>
+  </si>
+  <si>
+    <t>December-2022</t>
   </si>
   <si>
     <t>สถานะ</t>
@@ -451,15 +457,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:27">
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -501,75 +507,95 @@
         <v>9</v>
       </c>
       <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:27">
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:27">
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -600,34 +626,48 @@
         <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>3336130.42</v>
+        <v>3522906</v>
       </c>
       <c r="S4" s="3">
         <v>26</v>
       </c>
       <c r="T4" s="3">
-        <v>21567517.01</v>
+        <v>20575221.49</v>
       </c>
       <c r="U4" s="3">
-        <v>117</v>
-      </c>
-      <c r="V4" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="V4" s="3">
+        <v>318000</v>
+      </c>
       <c r="W4" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1581695</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>849905</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:27">
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3">
-        <v>507278</v>
+        <v>342919</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>212919</v>
+        <v>262742</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -639,122 +679,148 @@
         <v>2</v>
       </c>
       <c r="J5" s="3">
-        <v>411121</v>
+        <v>385922</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
       </c>
       <c r="L5" s="3">
-        <v>204013</v>
+        <v>174826</v>
       </c>
       <c r="M5" s="3">
         <v>1</v>
       </c>
       <c r="N5" s="3">
-        <v>231502</v>
+        <v>683636.28</v>
       </c>
       <c r="O5" s="3">
         <v>2</v>
       </c>
       <c r="P5" s="3">
-        <v>231773</v>
+        <v>68240</v>
       </c>
       <c r="Q5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R5" s="3">
-        <v>1090251</v>
+        <v>970705</v>
       </c>
       <c r="S5" s="3">
         <v>4</v>
       </c>
       <c r="T5" s="3">
-        <v>917799</v>
+        <v>854489</v>
       </c>
       <c r="U5" s="3">
         <v>4</v>
       </c>
       <c r="V5" s="3">
-        <v>18146</v>
+        <v>765597</v>
       </c>
       <c r="W5" s="3">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="X5" s="3">
+        <v>861848</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1671592</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:27">
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>507914</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>460423</v>
       </c>
       <c r="I6" s="3">
         <v>3</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>161648</v>
       </c>
       <c r="K6" s="3">
         <v>2</v>
       </c>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>385922</v>
       </c>
       <c r="M6" s="3">
         <v>1</v>
       </c>
       <c r="N6" s="3">
-        <v>0</v>
+        <v>12816</v>
       </c>
       <c r="O6" s="3">
         <v>1</v>
       </c>
       <c r="P6" s="3">
-        <v>0</v>
+        <v>174826</v>
       </c>
       <c r="Q6" s="3">
         <v>1</v>
       </c>
       <c r="R6" s="3">
-        <v>0</v>
+        <v>886416.28</v>
       </c>
       <c r="S6" s="3">
         <v>4</v>
       </c>
       <c r="T6" s="3">
-        <v>0</v>
+        <v>291600</v>
       </c>
       <c r="U6" s="3">
         <v>1</v>
       </c>
       <c r="V6" s="3">
-        <v>0</v>
+        <v>1038080</v>
       </c>
       <c r="W6" s="3">
         <v>4</v>
       </c>
+      <c r="X6" s="3">
+        <v>466605</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>659966</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:27">
       <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
+        <v>152452</v>
+      </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>507914</v>
+      </c>
       <c r="G7" s="3">
         <v>2</v>
       </c>
@@ -762,101 +828,167 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>460423</v>
+      </c>
       <c r="K7" s="3">
-        <v>4</v>
-      </c>
-      <c r="L7" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>161648</v>
+      </c>
       <c r="M7" s="3">
         <v>2</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3">
+        <v>385922</v>
+      </c>
       <c r="O7" s="3">
         <v>1</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3">
+        <v>12816</v>
+      </c>
       <c r="Q7" s="3">
         <v>1</v>
       </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="3">
+        <v>385015</v>
+      </c>
       <c r="S7" s="3">
         <v>2</v>
       </c>
-      <c r="T7" s="3"/>
+      <c r="T7" s="3">
+        <v>202780</v>
+      </c>
       <c r="U7" s="3">
         <v>2</v>
       </c>
-      <c r="V7" s="3"/>
+      <c r="V7" s="3">
+        <v>765047.28</v>
+      </c>
       <c r="W7" s="3">
         <v>2</v>
       </c>
+      <c r="X7" s="3">
+        <v>741555</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>971837</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:27">
       <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1268118</v>
+      </c>
       <c r="E8" s="3">
         <v>4</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>230597</v>
+      </c>
       <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>152452</v>
+      </c>
       <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>748474</v>
+      </c>
       <c r="K8" s="3">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>336557</v>
+      </c>
       <c r="M8" s="3">
-        <v>2</v>
-      </c>
-      <c r="N8" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>117504</v>
+      </c>
       <c r="O8" s="3">
         <v>1</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="3">
+        <v>16410</v>
+      </c>
       <c r="Q8" s="3">
         <v>1</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="3">
+        <v>196689</v>
+      </c>
       <c r="S8" s="3">
-        <v>3</v>
-      </c>
-      <c r="T8" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="T8" s="3">
+        <v>293196</v>
+      </c>
       <c r="U8" s="3">
         <v>4</v>
       </c>
-      <c r="V8" s="3"/>
+      <c r="V8" s="3">
+        <v>578296</v>
+      </c>
       <c r="W8" s="3">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="X8" s="3">
+        <v>174826</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>678018</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:27">
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>634950</v>
+      </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>287201</v>
+      </c>
       <c r="I9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>152452</v>
+      </c>
       <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>240560</v>
+      </c>
       <c r="M9" s="3">
         <v>1</v>
       </c>
@@ -876,34 +1008,52 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="3"/>
+      <c r="V9" s="3">
+        <v>331831</v>
+      </c>
       <c r="W9" s="3">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3">
+        <v>553631</v>
+      </c>
+      <c r="Y9" s="3">
         <v>3</v>
       </c>
+      <c r="Z9" s="3">
+        <v>223005</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:27">
       <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D10" s="3">
+        <v>47295</v>
+      </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <v>355701</v>
+      </c>
       <c r="K10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3">
@@ -913,24 +1063,42 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3"/>
+      <c r="R10" s="3">
+        <v>403353</v>
+      </c>
       <c r="S10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3"/>
+      <c r="V10" s="3">
+        <v>132000</v>
+      </c>
       <c r="W10" s="3">
         <v>1</v>
       </c>
+      <c r="X10" s="3">
+        <v>477922</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1298579</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:27">
       <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>92984.1</v>
+      </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
@@ -938,11 +1106,15 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>68500</v>
+      </c>
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <v>287201</v>
+      </c>
       <c r="K11" s="3">
         <v>1</v>
       </c>
@@ -950,30 +1122,50 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3"/>
+      <c r="N11" s="3">
+        <v>152452</v>
+      </c>
       <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1108184</v>
+      </c>
       <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="R11" s="3">
+        <v>560885</v>
+      </c>
       <c r="S11" s="3">
-        <v>4</v>
-      </c>
-      <c r="T11" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="T11" s="3">
+        <v>209323</v>
+      </c>
       <c r="U11" s="3">
-        <v>2</v>
-      </c>
-      <c r="V11" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="V11" s="3">
+        <v>79856</v>
+      </c>
       <c r="W11" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>808483</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:27">
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
@@ -1003,46 +1195,70 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="R12" s="3"/>
+      <c r="R12" s="3">
+        <v>689582</v>
+      </c>
       <c r="S12" s="3">
-        <v>21</v>
-      </c>
-      <c r="T12" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="T12" s="3">
+        <v>12745961.28</v>
+      </c>
       <c r="U12" s="3">
-        <v>64</v>
-      </c>
-      <c r="V12" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="V12" s="3">
+        <v>198000</v>
+      </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>170062</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>849905</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:27">
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>21980</v>
+      </c>
       <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>25315</v>
+      </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>68500</v>
+      </c>
       <c r="M13" s="3">
         <v>1</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3">
@@ -1052,18 +1268,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-      <c r="T13" s="3"/>
+      <c r="T13" s="3">
+        <v>162793</v>
+      </c>
       <c r="U13" s="3">
-        <v>1</v>
-      </c>
-      <c r="V13" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="V13" s="3">
+        <v>240560</v>
+      </c>
       <c r="W13" s="3">
         <v>1</v>
       </c>
+      <c r="X13" s="3">
+        <v>132000</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>281233</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:27">
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -1105,20 +1337,34 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:27">
       <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D15" s="3">
+        <v>385000</v>
+      </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>413000</v>
+      </c>
       <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>385000</v>
+      </c>
       <c r="I15" s="3">
         <v>3</v>
       </c>
@@ -1150,8 +1396,20 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
+      <c r="X15" s="3">
+        <v>240000</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>120000</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:27">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1173,6 +1431,10 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1187,6 +1449,8 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/tmp/legislation.xlsx
+++ b/public/tmp/legislation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
   <si>
     <t>รายงานสถานะลูกหนี้ฟ้อง</t>
   </si>
@@ -51,19 +51,70 @@
     <t>นาย สันติสุข  สีเพ็ญ</t>
   </si>
   <si>
+    <t>กำหนดการ 5 วัน</t>
+  </si>
+  <si>
+    <t>P03-65180008</t>
+  </si>
+  <si>
+    <t>นาย สุนทร  บุญกระจ่าง</t>
+  </si>
+  <si>
     <t>รอดำเนินการ</t>
   </si>
   <si>
+    <t>นางสาว อนัญญา  ชัยรัตน์</t>
+  </si>
+  <si>
+    <t>P03-65010051</t>
+  </si>
+  <si>
+    <t>นาย ภูวดล  สุขคำ</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ ชั้นสืบพยาน</t>
+  </si>
+  <si>
+    <t>วันที่สืบพยาน</t>
+  </si>
+  <si>
+    <t>P05-65150001</t>
+  </si>
+  <si>
+    <t>นาย พงศกร  เริงการ</t>
+  </si>
+  <si>
+    <t>ผบ.166/2566</t>
+  </si>
+  <si>
+    <t>กำหนดการ 6 วัน</t>
+  </si>
+  <si>
+    <t>P03-65010040</t>
+  </si>
+  <si>
+    <t>นาย ศราวุธ  บ่อหนา</t>
+  </si>
+  <si>
+    <t>ผบ.E3289/2566</t>
+  </si>
+  <si>
+    <t>101-65170003</t>
+  </si>
+  <si>
+    <t>นาย พงษ์พัฒน์  ไกรเกรอะ</t>
+  </si>
+  <si>
+    <t>ผบ.E4125</t>
+  </si>
+  <si>
     <t>P05-64050010</t>
   </si>
   <si>
     <t>นาง ธณษพร  ธงไชย</t>
   </si>
   <si>
-    <t>P03-65180008</t>
-  </si>
-  <si>
-    <t>นาย สุนทร  บุญกระจ่าง</t>
+    <t>ผบ.457/2566</t>
   </si>
   <si>
     <t>P05-65040002</t>
@@ -72,28 +123,190 @@
     <t>นางสาว ภาศินี  อยู่ทองอินทร์</t>
   </si>
   <si>
-    <t>นางสาว อนัญญา  ชัยรัตน์</t>
-  </si>
-  <si>
-    <t>P03-65010051</t>
-  </si>
-  <si>
-    <t>นาย ภูวดล  สุขคำ</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ ชั้นสืบพยาน</t>
-  </si>
-  <si>
-    <t>วันที่สืบพยาน</t>
-  </si>
-  <si>
-    <t>P05-65150001</t>
-  </si>
-  <si>
-    <t>นาย พงศกร  เริงการ</t>
-  </si>
-  <si>
-    <t>ผบ.166/2566</t>
+    <t>ผบ.703/2566</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ ชั้นส่งคำบังคับ</t>
+  </si>
+  <si>
+    <t>กำหนดวันส่งคำบังคับ</t>
+  </si>
+  <si>
+    <t>วันที่ส่งคำบังคับ</t>
+  </si>
+  <si>
+    <t>P03-65050071</t>
+  </si>
+  <si>
+    <t>นางสาว ภาวิณี  ฮันแย็ก</t>
+  </si>
+  <si>
+    <t>ผบ.E3663/2566</t>
+  </si>
+  <si>
+    <t>กำหนดการ 32 วัน</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ ชั้นตรวจผลหมาย</t>
+  </si>
+  <si>
+    <t>กำหนดวันตรวจผลหมาย</t>
+  </si>
+  <si>
+    <t>วันที่ตรวจผลหมาย</t>
+  </si>
+  <si>
+    <t>P03-65110041</t>
+  </si>
+  <si>
+    <t>น.ส. ราตรี  บัวแสง</t>
+  </si>
+  <si>
+    <t>ผบ.E2654/2566</t>
+  </si>
+  <si>
+    <t>P03-65140015</t>
+  </si>
+  <si>
+    <t>นาย นฤเบศร์  เครือจันทร์</t>
+  </si>
+  <si>
+    <t>ผบ.194/2566</t>
+  </si>
+  <si>
+    <t>กำหนดการ 4 วัน</t>
+  </si>
+  <si>
+    <t>P05-65100010</t>
+  </si>
+  <si>
+    <t>นาย วรรณโน  นกศรีแก้ว</t>
+  </si>
+  <si>
+    <t>ผบ552/66</t>
+  </si>
+  <si>
+    <t>101-64020008</t>
+  </si>
+  <si>
+    <t>นาย ติณณมินทร์  ยิ่งดี</t>
+  </si>
+  <si>
+    <t>ผบ.522/2566</t>
+  </si>
+  <si>
+    <t>101-63010057</t>
+  </si>
+  <si>
+    <t>นาย บุญเลิศ  มณีฉาย</t>
+  </si>
+  <si>
+    <t>ผบ.273/66</t>
+  </si>
+  <si>
+    <t>P04-65060011</t>
+  </si>
+  <si>
+    <t>น.ส. พรทิพย์  ยิ่งขจร</t>
+  </si>
+  <si>
+    <t>ผบE3146/66</t>
+  </si>
+  <si>
+    <t>101-63160002</t>
+  </si>
+  <si>
+    <t>นาย อนันต์  ทองแก้ว</t>
+  </si>
+  <si>
+    <t>ผบ593/66</t>
+  </si>
+  <si>
+    <t>P06-65160001</t>
+  </si>
+  <si>
+    <t>ผบ582/66</t>
+  </si>
+  <si>
+    <t>P06-65140024</t>
+  </si>
+  <si>
+    <t>ผบ.639/2566</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ ชั้นตั้งเจ้าพนักงาน</t>
+  </si>
+  <si>
+    <t>กำหนดวันตั้งเจ้าพนักงาน</t>
+  </si>
+  <si>
+    <t>วันที่ตั้งเจ้าพนักงาน</t>
+  </si>
+  <si>
+    <t>101-64230002</t>
+  </si>
+  <si>
+    <t>นางสาว จันทร์จิรา  จันทร์แหยม</t>
+  </si>
+  <si>
+    <t>ผบ392/66</t>
+  </si>
+  <si>
+    <t>กำหนดการ 7 วัน</t>
+  </si>
+  <si>
+    <t>P03-65020025</t>
+  </si>
+  <si>
+    <t>นาง หนูเพียร  จิตรหลัง</t>
+  </si>
+  <si>
+    <t>ผบ.383/2566</t>
+  </si>
+  <si>
+    <t>P03-65120035</t>
+  </si>
+  <si>
+    <t>นาย สำเริง  นกรู้รัก</t>
+  </si>
+  <si>
+    <t>ผบ.241/66</t>
+  </si>
+  <si>
+    <t>P03-64110032</t>
+  </si>
+  <si>
+    <t>นาย อังคาร  เจริญฤทธิ์</t>
+  </si>
+  <si>
+    <t>ผบ.E4299</t>
+  </si>
+  <si>
+    <t>101-64040011</t>
+  </si>
+  <si>
+    <t>นาย วาทยุทธ  แก้วโลก</t>
+  </si>
+  <si>
+    <t>ผบ557/66</t>
+  </si>
+  <si>
+    <t>P03-64030044</t>
+  </si>
+  <si>
+    <t>นาย สมโชค  ถิ่นสะท้อน</t>
+  </si>
+  <si>
+    <t>ผบ.571/2566</t>
+  </si>
+  <si>
+    <t>P02-641502/1</t>
+  </si>
+  <si>
+    <t>นาย ศตวรรษ  ทรายทอง</t>
+  </si>
+  <si>
+    <t>ผบ.131/2566</t>
   </si>
   <si>
     <t>101-65190006</t>
@@ -105,234 +318,36 @@
     <t>ผบ.373/2566</t>
   </si>
   <si>
-    <t>กำหนดการ 7 วัน</t>
-  </si>
-  <si>
-    <t>P03-65050071</t>
-  </si>
-  <si>
-    <t>นางสาว ภาวิณี  ฮันแย็ก</t>
-  </si>
-  <si>
-    <t>ผบ.E3663/2566</t>
+    <t>P04-65170004</t>
+  </si>
+  <si>
+    <t>นาย ใจ  เพ็ชรสุทธิ์</t>
+  </si>
+  <si>
+    <t>ผบ.422/2566</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ ชั้นตรวจผลหมายตั้ง</t>
+  </si>
+  <si>
+    <t>กำหนดวันตรวจผลหมายตั้ง</t>
+  </si>
+  <si>
+    <t>วันที่ตรวจผลหมายตั้ง</t>
+  </si>
+  <si>
+    <t>101-63050048</t>
+  </si>
+  <si>
+    <t>นางสาว รัชนีกร  ขันทอง</t>
+  </si>
+  <si>
+    <t>ผบ.120/2566</t>
   </si>
   <si>
     <t>เลยกำหนดการ</t>
   </si>
   <si>
-    <t>P03-65010040</t>
-  </si>
-  <si>
-    <t>นาย ศราวุธ  บ่อหนา</t>
-  </si>
-  <si>
-    <t>ผบ.E3289/2566</t>
-  </si>
-  <si>
-    <t>P04-65170004</t>
-  </si>
-  <si>
-    <t>นาย ใจ  เพ็ชรสุทธิ์</t>
-  </si>
-  <si>
-    <t>ผบ.422/2566</t>
-  </si>
-  <si>
-    <t>กำหนดการ 1 วัน</t>
-  </si>
-  <si>
-    <t>101-65170003</t>
-  </si>
-  <si>
-    <t>นาย พงษ์พัฒน์  ไกรเกรอะ</t>
-  </si>
-  <si>
-    <t>ผบ.E4125</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ ชั้นส่งคำบังคับ</t>
-  </si>
-  <si>
-    <t>กำหนดวันส่งคำบังคับ</t>
-  </si>
-  <si>
-    <t>วันที่ส่งคำบังคับ</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ ชั้นตรวจผลหมาย</t>
-  </si>
-  <si>
-    <t>กำหนดวันตรวจผลหมาย</t>
-  </si>
-  <si>
-    <t>วันที่ตรวจผลหมาย</t>
-  </si>
-  <si>
-    <t>P03-65110041</t>
-  </si>
-  <si>
-    <t>น.ส. ราตรี  บัวแสง</t>
-  </si>
-  <si>
-    <t>ผบ.E2654/2566</t>
-  </si>
-  <si>
-    <t>P03-65140015</t>
-  </si>
-  <si>
-    <t>นาย นฤเบศร์  เครือจันทร์</t>
-  </si>
-  <si>
-    <t>ผบ.194/2566</t>
-  </si>
-  <si>
-    <t>P05-65100010</t>
-  </si>
-  <si>
-    <t>นาย วรรณโน  นกศรีแก้ว</t>
-  </si>
-  <si>
-    <t>ผบ552/66</t>
-  </si>
-  <si>
-    <t>101-64020008</t>
-  </si>
-  <si>
-    <t>นาย ติณณมินทร์  ยิ่งดี</t>
-  </si>
-  <si>
-    <t>ผบ.522/2566</t>
-  </si>
-  <si>
-    <t>101-63010057</t>
-  </si>
-  <si>
-    <t>นาย บุญเลิศ  มณีฉาย</t>
-  </si>
-  <si>
-    <t>ผบ.273/66</t>
-  </si>
-  <si>
-    <t>P04-65060011</t>
-  </si>
-  <si>
-    <t>น.ส. พรทิพย์  ยิ่งขจร</t>
-  </si>
-  <si>
-    <t>ผบE3146/66</t>
-  </si>
-  <si>
-    <t>101-63160002</t>
-  </si>
-  <si>
-    <t>นาย อนันต์  ทองแก้ว</t>
-  </si>
-  <si>
-    <t>ผบ593/66</t>
-  </si>
-  <si>
-    <t>P06-65160001</t>
-  </si>
-  <si>
-    <t>ผบ582/66</t>
-  </si>
-  <si>
-    <t>P06-65140024</t>
-  </si>
-  <si>
-    <t>ผบ.639/2566</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ ชั้นตั้งเจ้าพนักงาน</t>
-  </si>
-  <si>
-    <t>กำหนดวันตั้งเจ้าพนักงาน</t>
-  </si>
-  <si>
-    <t>วันที่ตั้งเจ้าพนักงาน</t>
-  </si>
-  <si>
-    <t>101-64230002</t>
-  </si>
-  <si>
-    <t>นางสาว จันทร์จิรา  จันทร์แหยม</t>
-  </si>
-  <si>
-    <t>ผบ392/66</t>
-  </si>
-  <si>
-    <t>P03-65020025</t>
-  </si>
-  <si>
-    <t>นาง หนูเพียร  จิตรหลัง</t>
-  </si>
-  <si>
-    <t>ผบ.383/2566</t>
-  </si>
-  <si>
-    <t>P03-65120035</t>
-  </si>
-  <si>
-    <t>นาย สำเริง  นกรู้รัก</t>
-  </si>
-  <si>
-    <t>ผบ.241/66</t>
-  </si>
-  <si>
-    <t>P03-64110032</t>
-  </si>
-  <si>
-    <t>นาย อังคาร  เจริญฤทธิ์</t>
-  </si>
-  <si>
-    <t>ผบ.E4299</t>
-  </si>
-  <si>
-    <t>101-64040011</t>
-  </si>
-  <si>
-    <t>นาย วาทยุทธ  แก้วโลก</t>
-  </si>
-  <si>
-    <t>ผบ557/66</t>
-  </si>
-  <si>
-    <t>P03-64030044</t>
-  </si>
-  <si>
-    <t>นาย สมโชค  ถิ่นสะท้อน</t>
-  </si>
-  <si>
-    <t>ผบ.571/2566</t>
-  </si>
-  <si>
-    <t>P02-641502/1</t>
-  </si>
-  <si>
-    <t>นาย ศตวรรษ  ทรายทอง</t>
-  </si>
-  <si>
-    <t>ผบ.131/2566</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ ชั้นตรวจผลหมายตั้ง</t>
-  </si>
-  <si>
-    <t>กำหนดวันตรวจผลหมายตั้ง</t>
-  </si>
-  <si>
-    <t>วันที่ตรวจผลหมายตั้ง</t>
-  </si>
-  <si>
-    <t>101-63050048</t>
-  </si>
-  <si>
-    <t>นางสาว รัชนีกร  ขันทอง</t>
-  </si>
-  <si>
-    <t>ผบ.120/2566</t>
-  </si>
-  <si>
     <t>P28-65090002</t>
   </si>
   <si>
@@ -342,6 +357,9 @@
     <t>ผบ.78/2566</t>
   </si>
   <si>
+    <t>กำหนดการ 31 วัน</t>
+  </si>
+  <si>
     <t>คัดหนังสือรับรองคดีถึงที่สุด</t>
   </si>
   <si>
@@ -441,6 +459,9 @@
     <t>ผบ225/64</t>
   </si>
   <si>
+    <t>สืบทรัพย์ไม่เจอ</t>
+  </si>
+  <si>
     <t>P04-18090013</t>
   </si>
   <si>
@@ -807,18 +828,6 @@
     <t>ผบ5073/61</t>
   </si>
   <si>
-    <t>P04-18040016</t>
-  </si>
-  <si>
-    <t>นาย อับดลเลาะ  สุขจันทร์</t>
-  </si>
-  <si>
-    <t>ผบ5021/62</t>
-  </si>
-  <si>
-    <t>ผบ5674/62</t>
-  </si>
-  <si>
     <t>101-20160131</t>
   </si>
   <si>
@@ -1206,15 +1215,6 @@
     <t>ผบ.83/2566</t>
   </si>
   <si>
-    <t>101-64090005</t>
-  </si>
-  <si>
-    <t>นาย วินัย  ศุภพันธ์</t>
-  </si>
-  <si>
-    <t>ผบ.99/2566</t>
-  </si>
-  <si>
     <t>คัดโฉนด/ถ่ายภาพ</t>
   </si>
   <si>
@@ -1614,337 +1614,343 @@
     <t>ประนอมที่ศาล</t>
   </si>
   <si>
+    <t>40 days</t>
+  </si>
+  <si>
+    <t>228 days</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>ประนอมที่บริษัท</t>
+  </si>
+  <si>
+    <t>8 days</t>
+  </si>
+  <si>
+    <t>47 days</t>
+  </si>
+  <si>
+    <t>14 days</t>
+  </si>
+  <si>
+    <t>31 days</t>
+  </si>
+  <si>
+    <t>282 days</t>
+  </si>
+  <si>
+    <t>758 days</t>
+  </si>
+  <si>
+    <t>23 days</t>
+  </si>
+  <si>
+    <t>18 days</t>
+  </si>
+  <si>
+    <t>34 days</t>
+  </si>
+  <si>
+    <t>4 days</t>
+  </si>
+  <si>
+    <t>12 days</t>
+  </si>
+  <si>
     <t>3 days</t>
   </si>
   <si>
-    <t>220 days</t>
-  </si>
-  <si>
-    <t>31 days</t>
-  </si>
-  <si>
-    <t>32 days</t>
-  </si>
-  <si>
-    <t>ประนอมหนี้ก่อนฟ้อง</t>
+    <t>5 days</t>
+  </si>
+  <si>
+    <t>1 days</t>
+  </si>
+  <si>
+    <t>221 days</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>11 days</t>
+  </si>
+  <si>
+    <t>63 days</t>
+  </si>
+  <si>
+    <t>71 days</t>
+  </si>
+  <si>
+    <t>101-20160203</t>
+  </si>
+  <si>
+    <t>นาย วุฒิพงค์  เพชรดี</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ก่อนฟ้อง</t>
+  </si>
+  <si>
+    <t>P02-20160020</t>
+  </si>
+  <si>
+    <t>นางสาว สาวนุ้ย  ปานคง</t>
+  </si>
+  <si>
+    <t>P07-63010002</t>
+  </si>
+  <si>
+    <t>นาย รัชศักดิ์  ไกรทอง</t>
+  </si>
+  <si>
+    <t>774 days</t>
+  </si>
+  <si>
+    <t>P03-63010032</t>
+  </si>
+  <si>
+    <t>นาย พัชรินทร์  สุวรรณรัตน์</t>
+  </si>
+  <si>
+    <t>2559/10/3</t>
+  </si>
+  <si>
+    <t>นาย พรทวี  อุดมศรี</t>
+  </si>
+  <si>
+    <t>ลูกหนี้หลุดขายฝาก</t>
+  </si>
+  <si>
+    <t>ประนอมขายฝาก</t>
+  </si>
+  <si>
+    <t>9 days</t>
+  </si>
+  <si>
+    <t>P01170102/5</t>
+  </si>
+  <si>
+    <t>นาย ต้ามิ้ง  หมั่นสอาด</t>
+  </si>
+  <si>
+    <t>P01170210/4</t>
+  </si>
+  <si>
+    <t>นางสาว สุภา  พรหมศรีพัฒ</t>
+  </si>
+  <si>
+    <t>19 days</t>
+  </si>
+  <si>
+    <t>P01-19040007</t>
+  </si>
+  <si>
+    <t>นาย มนึก ซื่อตรง</t>
+  </si>
+  <si>
+    <t>P01190405/2</t>
+  </si>
+  <si>
+    <t>นางสาว อังคณา  บุญคง</t>
   </si>
   <si>
     <t>39 days</t>
   </si>
   <si>
-    <t>55 days</t>
-  </si>
-  <si>
-    <t>23 days</t>
-  </si>
-  <si>
-    <t>274 days</t>
-  </si>
-  <si>
-    <t>750 days</t>
-  </si>
-  <si>
-    <t>15 days</t>
-  </si>
-  <si>
-    <t>40 days</t>
-  </si>
-  <si>
-    <t>26 days</t>
-  </si>
-  <si>
-    <t>27 days</t>
-  </si>
-  <si>
-    <t>30 days</t>
-  </si>
-  <si>
-    <t>34 days</t>
-  </si>
-  <si>
-    <t>25 days</t>
-  </si>
-  <si>
-    <t>14 days</t>
-  </si>
-  <si>
-    <t>19 days</t>
+    <t>P01190804/2</t>
+  </si>
+  <si>
+    <t>นางสาว อาภรณ์  เลี่ยมชาติ</t>
+  </si>
+  <si>
+    <t>183 days</t>
+  </si>
+  <si>
+    <t>P01-180404/2</t>
+  </si>
+  <si>
+    <t>นาง บุญเสริม  เหล่ชาย</t>
+  </si>
+  <si>
+    <t>242 days</t>
+  </si>
+  <si>
+    <t>101-63130027</t>
+  </si>
+  <si>
+    <t>นาย สมคิด  จำปาทอง</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>180 days</t>
   </si>
   <si>
     <t>21 days</t>
   </si>
   <si>
-    <t>213 days</t>
-  </si>
-  <si>
-    <t>41 days</t>
-  </si>
-  <si>
-    <t>35 days</t>
-  </si>
-  <si>
-    <t>24 days</t>
-  </si>
-  <si>
-    <t>ประนอมที่บริษัท</t>
-  </si>
-  <si>
-    <t>63 days</t>
-  </si>
-  <si>
-    <t>101-20160203</t>
-  </si>
-  <si>
-    <t>นาย วุฒิพงค์  เพชรดี</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ก่อนฟ้อง</t>
-  </si>
-  <si>
-    <t>28 days</t>
-  </si>
-  <si>
-    <t>P02-20160020</t>
-  </si>
-  <si>
-    <t>นางสาว สาวนุ้ย  ปานคง</t>
-  </si>
-  <si>
-    <t>P07-63010002</t>
-  </si>
-  <si>
-    <t>นาย รัชศักดิ์  ไกรทอง</t>
-  </si>
-  <si>
-    <t>766 days</t>
-  </si>
-  <si>
-    <t>P03-63010032</t>
-  </si>
-  <si>
-    <t>นาย พัชรินทร์  สุวรรณรัตน์</t>
+    <t>P01630106/1</t>
+  </si>
+  <si>
+    <t>นางสาว อมรรัตน์  แซ่ลิ่ม</t>
+  </si>
+  <si>
+    <t>P01190507/2</t>
+  </si>
+  <si>
+    <t>นางสาว บุญเรือน  จงทอง</t>
+  </si>
+  <si>
+    <t>P01191001/3</t>
+  </si>
+  <si>
+    <t>นางสาว สุดารัตน์  นุ่นช่วย</t>
+  </si>
+  <si>
+    <t>P01-180402/2</t>
+  </si>
+  <si>
+    <t>นางสาว จินตนา  รักษากิจ</t>
+  </si>
+  <si>
+    <t>P01180203/5</t>
+  </si>
+  <si>
+    <t>นาง ปราณี  มูลกุล</t>
+  </si>
+  <si>
+    <t>P01180105/4</t>
+  </si>
+  <si>
+    <t>นางสาว สนับ  พันธ์หญ้า</t>
+  </si>
+  <si>
+    <t>P01170211/3</t>
+  </si>
+  <si>
+    <t>นาย อบ  มีชัย</t>
+  </si>
+  <si>
+    <t>33 days</t>
+  </si>
+  <si>
+    <t>P07-64010035</t>
+  </si>
+  <si>
+    <t>นาย สุรศักดิ์  ทองทิพย์</t>
+  </si>
+  <si>
+    <t>13 days</t>
+  </si>
+  <si>
+    <t>P01190719/2</t>
+  </si>
+  <si>
+    <t>นาง จิรา  จันทร์หอม</t>
+  </si>
+  <si>
+    <t>101-64190009</t>
+  </si>
+  <si>
+    <t>นาย ชำนาญ  เดชดินดอน</t>
+  </si>
+  <si>
+    <t>64 days</t>
+  </si>
+  <si>
+    <t>P07-64010033</t>
+  </si>
+  <si>
+    <t>นาย ธีรวัฒน์  หาญชนะ</t>
+  </si>
+  <si>
+    <t>P03-64030066</t>
+  </si>
+  <si>
+    <t>นาย สุนทร  ศรีระบาย</t>
+  </si>
+  <si>
+    <t>101-64010026</t>
+  </si>
+  <si>
+    <t>นาย สมพร  คล่องเเคล่ว</t>
+  </si>
+  <si>
+    <t>22 days</t>
+  </si>
+  <si>
+    <t>101-64090012</t>
+  </si>
+  <si>
+    <t>นาย ณัฐวุฒิ  ฐิติดำเกิง</t>
+  </si>
+  <si>
+    <t>P03-65050040</t>
+  </si>
+  <si>
+    <t>นาง ศิราณี  ศรีเมฆ</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ค้าง 1 งวด</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ค้าง 2 งวด</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ค้าง 3 งวด</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ค้าง 3 งวดขึ้นไป</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ประนอมไม่มีการชำระ</t>
+  </si>
+  <si>
+    <t>วันที่นัดจ่ายเงินก้อนแรก</t>
+  </si>
+  <si>
+    <t>เงินก้อนแรก</t>
+  </si>
+  <si>
+    <t>ยอดจ่ายเงินก้นแรก</t>
+  </si>
+  <si>
+    <t>851 days</t>
+  </si>
+  <si>
+    <t>368 days</t>
+  </si>
+  <si>
+    <t>376 days</t>
+  </si>
+  <si>
+    <t>P01180104/2</t>
+  </si>
+  <si>
+    <t>นาย ฮาเก็ม  ดำรงค์ศักดิ์</t>
+  </si>
+  <si>
+    <t>1478 days</t>
+  </si>
+  <si>
+    <t>P01180314/3</t>
+  </si>
+  <si>
+    <t>นาย สังวร  คงบำเรอ</t>
+  </si>
+  <si>
+    <t>312 days</t>
+  </si>
+  <si>
+    <t>310 days</t>
+  </si>
+  <si>
+    <t>181 days</t>
   </si>
   <si>
     <t>38 days</t>
-  </si>
-  <si>
-    <t>2559/10/3</t>
-  </si>
-  <si>
-    <t>นาย พรทวี  อุดมศรี</t>
-  </si>
-  <si>
-    <t>ลูกหนี้หลุดขายฝาก</t>
-  </si>
-  <si>
-    <t>ประนอมขายฝาก</t>
-  </si>
-  <si>
-    <t>P01170102/5</t>
-  </si>
-  <si>
-    <t>นาย ต้ามิ้ง  หมั่นสอาด</t>
-  </si>
-  <si>
-    <t>P01170210/4</t>
-  </si>
-  <si>
-    <t>นางสาว สุภา  พรหมศรีพัฒ</t>
-  </si>
-  <si>
-    <t>50 days</t>
-  </si>
-  <si>
-    <t>P01-19040007</t>
-  </si>
-  <si>
-    <t>นาย มนึก ซื่อตรง</t>
-  </si>
-  <si>
-    <t>P01190405/2</t>
-  </si>
-  <si>
-    <t>นางสาว อังคณา  บุญคง</t>
-  </si>
-  <si>
-    <t>P01190804/2</t>
-  </si>
-  <si>
-    <t>นางสาว อาภรณ์  เลี่ยมชาติ</t>
-  </si>
-  <si>
-    <t>175 days</t>
-  </si>
-  <si>
-    <t>P01-180404/2</t>
-  </si>
-  <si>
-    <t>นาง บุญเสริม  เหล่ชาย</t>
-  </si>
-  <si>
-    <t>234 days</t>
-  </si>
-  <si>
-    <t>101-63130027</t>
-  </si>
-  <si>
-    <t>นาย สมคิด  จำปาทอง</t>
-  </si>
-  <si>
-    <t>172 days</t>
-  </si>
-  <si>
-    <t>13 days</t>
-  </si>
-  <si>
-    <t>P01630106/1</t>
-  </si>
-  <si>
-    <t>นางสาว อมรรัตน์  แซ่ลิ่ม</t>
-  </si>
-  <si>
-    <t>P01190507/2</t>
-  </si>
-  <si>
-    <t>นางสาว บุญเรือน  จงทอง</t>
-  </si>
-  <si>
-    <t>P01191001/3</t>
-  </si>
-  <si>
-    <t>นางสาว สุดารัตน์  นุ่นช่วย</t>
-  </si>
-  <si>
-    <t>P01-180402/2</t>
-  </si>
-  <si>
-    <t>นางสาว จินตนา  รักษากิจ</t>
-  </si>
-  <si>
-    <t>P01180203/5</t>
-  </si>
-  <si>
-    <t>นาง ปราณี  มูลกุล</t>
-  </si>
-  <si>
-    <t>P01180105/4</t>
-  </si>
-  <si>
-    <t>นางสาว สนับ  พันธ์หญ้า</t>
-  </si>
-  <si>
-    <t>P01170211/3</t>
-  </si>
-  <si>
-    <t>นาย อบ  มีชัย</t>
-  </si>
-  <si>
-    <t>P07-64010035</t>
-  </si>
-  <si>
-    <t>นาย สุรศักดิ์  ทองทิพย์</t>
-  </si>
-  <si>
-    <t>36 days</t>
-  </si>
-  <si>
-    <t>P01190719/2</t>
-  </si>
-  <si>
-    <t>นาง จิรา  จันทร์หอม</t>
-  </si>
-  <si>
-    <t>101-64190009</t>
-  </si>
-  <si>
-    <t>นาย ชำนาญ  เดชดินดอน</t>
-  </si>
-  <si>
-    <t>56 days</t>
-  </si>
-  <si>
-    <t>P07-64010033</t>
-  </si>
-  <si>
-    <t>นาย ธีรวัฒน์  หาญชนะ</t>
-  </si>
-  <si>
-    <t>P03-64030066</t>
-  </si>
-  <si>
-    <t>นาย สุนทร  ศรีระบาย</t>
-  </si>
-  <si>
-    <t>101-64010026</t>
-  </si>
-  <si>
-    <t>นาย สมพร  คล่องเเคล่ว</t>
-  </si>
-  <si>
-    <t>101-64090012</t>
-  </si>
-  <si>
-    <t>นาย ณัฐวุฒิ  ฐิติดำเกิง</t>
-  </si>
-  <si>
-    <t>33 days</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ค้าง 1 งวด</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ค้าง 2 งวด</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ค้าง 3 งวด</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ค้าง 3 งวดขึ้นไป</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ประนอมไม่มีการชำระ</t>
-  </si>
-  <si>
-    <t>วันที่นัดจ่ายเงินก้อนแรก</t>
-  </si>
-  <si>
-    <t>เงินก้อนแรก</t>
-  </si>
-  <si>
-    <t>ยอดจ่ายเงินก้นแรก</t>
-  </si>
-  <si>
-    <t>843 days</t>
-  </si>
-  <si>
-    <t>360 days</t>
-  </si>
-  <si>
-    <t>368 days</t>
-  </si>
-  <si>
-    <t>P01180104/2</t>
-  </si>
-  <si>
-    <t>นาย ฮาเก็ม  ดำรงค์ศักดิ์</t>
-  </si>
-  <si>
-    <t>1470 days</t>
-  </si>
-  <si>
-    <t>P01180314/3</t>
-  </si>
-  <si>
-    <t>นาย สังวร  คงบำเรอ</t>
-  </si>
-  <si>
-    <t>304 days</t>
-  </si>
-  <si>
-    <t>302 days</t>
-  </si>
-  <si>
-    <t>173 days</t>
   </si>
 </sst>
 </file>
@@ -2333,10 +2339,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K171"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K171" sqref="K171"/>
+      <selection activeCell="K169" sqref="K169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2409,12 +2415,12 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="3" t="s">
-        <v>14</v>
+      <c r="B7" s="3">
+        <v>402302140008</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -2426,7 +2432,7 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2443,200 +2449,192 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="3">
-        <v>402302140008</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5">
-        <v>45254.708333333</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5">
-        <v>45254.708333333</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5">
+        <v>45011.708333333</v>
+      </c>
+      <c r="G11" s="5">
+        <v>45242.708333333</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5">
+        <v>45223.708333333</v>
+      </c>
+      <c r="G12" s="5">
+        <v>45256.708333333</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="5">
-        <v>45011.708333333</v>
+        <v>45256.708333333</v>
       </c>
       <c r="G13" s="5">
-        <v>45242.708333333</v>
+        <v>45252.708333333</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="5">
-        <v>45198.708333333</v>
+        <v>45284.708333333</v>
       </c>
       <c r="G14" s="5">
-        <v>45235.708333333</v>
+        <v>45257.708333333</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="5">
-        <v>45223.708333333</v>
+        <v>45284.708333333</v>
       </c>
       <c r="G15" s="5">
-        <v>45224.708333333</v>
+        <v>45258.708333333</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5">
-        <v>45223.708333333</v>
-      </c>
-      <c r="G16" s="5">
-        <v>45256.708333333</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5">
-        <v>45223.708333333</v>
-      </c>
-      <c r="G17" s="5">
-        <v>45229.708333333</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>40</v>
+      <c r="H17" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="5">
-        <v>45256.708333333</v>
-      </c>
-      <c r="G18" s="5">
-        <v>45252.708333333</v>
-      </c>
+        <v>45268.708333333</v>
+      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2653,378 +2651,388 @@
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" t="s">
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5">
+        <v>45241.708333333</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5">
+        <v>45240.708333333</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="5">
-        <v>45241.708333333</v>
+        <v>45250.708333333</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="B24" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="5">
-        <v>45240.708333333</v>
+        <v>45254.708333333</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="5">
-        <v>45250.708333333</v>
+        <v>45282.708333333</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="5">
-        <v>45254.708333333</v>
+        <v>45282.708333333</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="5">
-        <v>45282.708333333</v>
+        <v>45286.708333333</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="5">
-        <v>45282.708333333</v>
+        <v>45286.708333333</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="5">
-        <v>45286.708333333</v>
+        <v>45313.708333333</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="B30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="5">
-        <v>45286.708333333</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="G31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="5">
-        <v>45313.708333333</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="3" t="s">
-        <v>11</v>
+      <c r="H31" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" t="s">
+      <c r="B32" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="C32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="5">
+        <v>45243.708333333</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="B33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>8</v>
+      <c r="B33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="5">
+        <v>45252.708333333</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="B34" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="5">
-        <v>45243.708333333</v>
+        <v>45274.708333333</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="B35" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="5">
-        <v>45252.708333333</v>
+        <v>45305.708333333</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="B36" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="5">
-        <v>45274.708333333</v>
+        <v>45305.708333333</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="5">
-        <v>45305.708333333</v>
+        <v>45337.708333333</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="5">
-        <v>45305.708333333</v>
+        <v>45341.708333333</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="5">
-        <v>45337.708333333</v>
+        <v>45343.708333333</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="B40" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="5">
-        <v>45341.708333333</v>
+        <v>45368.708333333</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3041,10 +3049,10 @@
         <v>5</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>8</v>
@@ -3052,13 +3060,13 @@
     </row>
     <row r="43" spans="1:11">
       <c r="B43" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="5">
@@ -3066,18 +3074,18 @@
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="B44" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="5">
@@ -3085,12 +3093,12 @@
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="3" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3107,10 +3115,10 @@
         <v>5</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>8</v>
@@ -3118,13 +3126,13 @@
     </row>
     <row r="47" spans="1:11">
       <c r="B47" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="5">
@@ -3132,12 +3140,12 @@
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3154,10 +3162,10 @@
         <v>5</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>8</v>
@@ -3165,1359 +3173,1311 @@
     </row>
     <row r="50" spans="1:11">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="5">
         <v>45126.708333333</v>
       </c>
-      <c r="G50" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G50" s="5"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:11">
       <c r="B51" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="5">
         <v>45153.708333333</v>
       </c>
-      <c r="G51" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G51" s="5"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:11">
       <c r="B52" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G52" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G52" s="5"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:11">
       <c r="B53" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="5">
         <v>45120.708333333</v>
       </c>
-      <c r="G53" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G53" s="5"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:11">
       <c r="B54" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G54" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G54" s="5"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:11">
       <c r="B55" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G55" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G55" s="5"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:11">
       <c r="B56" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="5">
         <v>45179.708333333</v>
       </c>
-      <c r="G56" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G56" s="5"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:11">
       <c r="B57" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="5">
         <v>45179.708333333</v>
       </c>
-      <c r="G57" s="5" t="b">
-        <v>0</v>
+      <c r="G57" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:11">
       <c r="B58" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F58" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G58" s="5" t="b">
-        <v>0</v>
+      <c r="G58" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:11">
       <c r="B59" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G59" s="5" t="b">
-        <v>0</v>
+      <c r="G59" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:11">
       <c r="B60" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F60" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G60" s="5" t="b">
-        <v>0</v>
+      <c r="G60" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:11">
       <c r="B61" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="5">
         <v>45179.708333333</v>
       </c>
-      <c r="G61" s="5" t="b">
-        <v>0</v>
+      <c r="G61" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:11">
       <c r="B62" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F62" s="5">
         <v>45209.708333333</v>
       </c>
-      <c r="G62" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G62" s="5"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:11">
       <c r="B63" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="5">
         <v>45090.708333333</v>
       </c>
-      <c r="G63" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G63" s="5"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:11">
       <c r="B64" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="5">
         <v>45209.708333333</v>
       </c>
-      <c r="G64" s="5" t="b">
-        <v>0</v>
+      <c r="G64" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:11">
       <c r="B65" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F65" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G65" s="5" t="b">
-        <v>0</v>
+      <c r="G65" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:11">
       <c r="B66" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F66" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G66" s="5" t="b">
-        <v>0</v>
+      <c r="G66" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:11">
       <c r="B67" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G67" s="5" t="b">
-        <v>0</v>
+      <c r="G67" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:11">
       <c r="B68" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G68" s="5" t="b">
-        <v>0</v>
+      <c r="G68" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:11">
       <c r="B69" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F69" s="5">
         <v>45126.708333333</v>
       </c>
-      <c r="G69" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G69" s="5"/>
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:11">
       <c r="B70" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F70" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G70" s="5" t="b">
-        <v>0</v>
+      <c r="G70" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:11">
       <c r="B71" s="3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="5">
         <v>45120.708333333</v>
       </c>
-      <c r="G71" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G71" s="5"/>
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:11">
       <c r="B72" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F72" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G72" s="5" t="b">
-        <v>0</v>
+      <c r="G72" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:11">
       <c r="B73" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="5">
         <v>45054.708333333</v>
       </c>
-      <c r="G73" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G73" s="5"/>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:11">
       <c r="B74" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G74" s="5" t="b">
-        <v>0</v>
+      <c r="G74" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:11">
       <c r="B75" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="5">
         <v>45053.708333333</v>
       </c>
-      <c r="G75" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G75" s="5"/>
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:11">
       <c r="B76" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="5">
         <v>45120.708333333</v>
       </c>
-      <c r="G76" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G76" s="5"/>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:11">
       <c r="B77" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="5">
         <v>45209.708333333</v>
       </c>
-      <c r="G77" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G77" s="5"/>
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="1:11">
       <c r="B78" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="5">
         <v>45148.708333333</v>
       </c>
-      <c r="G78" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G78" s="5"/>
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:11">
       <c r="B79" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="5">
         <v>45085.708333333</v>
       </c>
-      <c r="G79" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G79" s="5"/>
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:11">
       <c r="B80" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G80" s="5" t="b">
-        <v>0</v>
+      <c r="G80" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:11">
       <c r="B81" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F81" s="5">
         <v>45054.708333333</v>
       </c>
-      <c r="G81" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G81" s="5"/>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:11">
       <c r="B82" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="5">
         <v>45179.708333333</v>
       </c>
-      <c r="G82" s="5" t="b">
-        <v>0</v>
+      <c r="G82" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:11">
       <c r="B83" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="5">
         <v>45120.708333333</v>
       </c>
-      <c r="G83" s="5" t="b">
-        <v>0</v>
+      <c r="G83" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:11">
       <c r="B84" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="5">
         <v>45120.708333333</v>
       </c>
-      <c r="G84" s="5" t="b">
-        <v>0</v>
+      <c r="G84" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:11">
       <c r="B85" s="3" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F85" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G85" s="5" t="b">
-        <v>0</v>
+      <c r="G85" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:11">
       <c r="B86" s="3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F86" s="5">
         <v>45179.708333333</v>
       </c>
-      <c r="G86" s="5" t="b">
-        <v>0</v>
+      <c r="G86" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:11">
       <c r="B87" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F87" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G87" s="5" t="b">
-        <v>0</v>
+      <c r="G87" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H87" s="3"/>
     </row>
     <row r="88" spans="1:11">
       <c r="B88" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F88" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G88" s="5" t="b">
-        <v>0</v>
+      <c r="G88" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:11">
       <c r="B89" s="3" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F89" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G89" s="5" t="b">
-        <v>0</v>
+      <c r="G89" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="1:11">
       <c r="B90" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F90" s="5">
         <v>45148.708333333</v>
       </c>
-      <c r="G90" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G90" s="5"/>
       <c r="H90" s="3"/>
     </row>
     <row r="91" spans="1:11">
       <c r="B91" s="3" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F91" s="5">
         <v>45126.708333333</v>
       </c>
-      <c r="G91" s="5" t="b">
-        <v>0</v>
+      <c r="G91" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:11">
       <c r="B92" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F92" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G92" s="5" t="b">
-        <v>0</v>
+      <c r="G92" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:11">
       <c r="B93" s="3" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F93" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G93" s="5" t="b">
-        <v>0</v>
+      <c r="G93" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:11">
       <c r="B94" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F94" s="5">
-        <v>45147.708333333</v>
-      </c>
-      <c r="G94" s="5" t="b">
-        <v>0</v>
+        <v>45126.708333333</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:11">
       <c r="B95" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>269</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E95" s="3"/>
       <c r="F95" s="5">
-        <v>45126.708333333</v>
-      </c>
-      <c r="G95" s="5" t="b">
-        <v>0</v>
+        <v>45085.708333333</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:11">
       <c r="B96" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="5">
-        <v>45085.708333333</v>
-      </c>
-      <c r="G96" s="5" t="b">
-        <v>0</v>
+        <v>45147.708333333</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:11">
       <c r="B97" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G97" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G97" s="5"/>
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:11">
       <c r="B98" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E98" s="3"/>
+        <v>284</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="F98" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G98" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G98" s="5"/>
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:11">
       <c r="B99" s="3" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F99" s="5">
-        <v>45147.708333333</v>
-      </c>
-      <c r="G99" s="5" t="b">
-        <v>0</v>
-      </c>
+        <v>45120.708333333</v>
+      </c>
+      <c r="G99" s="5"/>
       <c r="H99" s="3"/>
     </row>
     <row r="100" spans="1:11">
       <c r="B100" s="3" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F100" s="5">
-        <v>45120.708333333</v>
-      </c>
-      <c r="G100" s="5" t="b">
-        <v>0</v>
+        <v>45156.708333333</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H100" s="3"/>
     </row>
     <row r="101" spans="1:11">
       <c r="B101" s="3" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F101" s="5">
-        <v>45156.708333333</v>
-      </c>
-      <c r="G101" s="5" t="b">
-        <v>0</v>
+        <v>45179.708333333</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H101" s="3"/>
     </row>
     <row r="102" spans="1:11">
       <c r="B102" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F102" s="5">
-        <v>45179.708333333</v>
-      </c>
-      <c r="G102" s="5" t="b">
-        <v>0</v>
+        <v>45147.708333333</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H102" s="3"/>
     </row>
     <row r="103" spans="1:11">
       <c r="B103" s="3" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F103" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G103" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G103" s="5"/>
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:11">
       <c r="B104" s="3" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F104" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G104" s="5" t="b">
-        <v>0</v>
+      <c r="G104" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:11">
       <c r="B105" s="3" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>306</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="E105" s="3"/>
       <c r="F105" s="5">
-        <v>45147.708333333</v>
-      </c>
-      <c r="G105" s="5" t="b">
-        <v>0</v>
+        <v>45126.708333333</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:11">
       <c r="B106" s="3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E106" s="3"/>
+        <v>315</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>316</v>
+      </c>
       <c r="F106" s="5">
-        <v>45126.708333333</v>
-      </c>
-      <c r="G106" s="5" t="b">
-        <v>0</v>
-      </c>
+        <v>45148.708333333</v>
+      </c>
+      <c r="G106" s="5"/>
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:11">
       <c r="B107" s="3" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>313</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="E107" s="3"/>
       <c r="F107" s="5">
-        <v>45148.708333333</v>
-      </c>
-      <c r="G107" s="5"/>
+        <v>45126.708333333</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:11">
       <c r="B108" s="3" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="5">
-        <v>45126.708333333</v>
-      </c>
-      <c r="G108" s="5" t="b">
-        <v>0</v>
+        <v>45148.708333333</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:11">
       <c r="B109" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="5">
-        <v>45148.708333333</v>
-      </c>
-      <c r="G109" s="5" t="b">
-        <v>0</v>
+        <v>45085.708333333</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H109" s="3"/>
     </row>
     <row r="110" spans="1:11">
       <c r="B110" s="3" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="5">
-        <v>45085.708333333</v>
-      </c>
-      <c r="G110" s="5" t="b">
-        <v>0</v>
+        <v>45126.708333333</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H110" s="3"/>
     </row>
     <row r="111" spans="1:11">
       <c r="B111" s="3" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="5">
-        <v>45126.708333333</v>
-      </c>
-      <c r="G111" s="5" t="b">
-        <v>0</v>
+        <v>45120.708333333</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H111" s="3"/>
     </row>
     <row r="112" spans="1:11">
       <c r="B112" s="3" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="5">
-        <v>45120.708333333</v>
-      </c>
-      <c r="G112" s="5" t="b">
-        <v>0</v>
+        <v>45209.708333333</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H112" s="3"/>
     </row>
     <row r="113" spans="1:11">
       <c r="B113" s="3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="5">
-        <v>45209.708333333</v>
-      </c>
-      <c r="G113" s="5" t="b">
-        <v>0</v>
+        <v>45148.708333333</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:11">
       <c r="B114" s="3" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="5">
-        <v>45148.708333333</v>
-      </c>
-      <c r="G114" s="5" t="b">
-        <v>0</v>
+        <v>45120.708333333</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:11">
       <c r="B115" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="5">
         <v>45120.708333333</v>
       </c>
-      <c r="G115" s="5" t="b">
-        <v>0</v>
+      <c r="G115" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:11">
       <c r="B116" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="5">
-        <v>45120.708333333</v>
-      </c>
-      <c r="G116" s="5" t="b">
-        <v>0</v>
+        <v>45085.708333333</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:11">
       <c r="B117" s="3" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="5">
-        <v>45085.708333333</v>
-      </c>
-      <c r="G117" s="5" t="b">
-        <v>0</v>
-      </c>
+        <v>45179.708333333</v>
+      </c>
+      <c r="G117" s="5"/>
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:11">
       <c r="B118" s="3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E118" s="3"/>
+        <v>352</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>353</v>
+      </c>
       <c r="F118" s="5">
         <v>45179.708333333</v>
       </c>
@@ -4526,70 +4486,68 @@
     </row>
     <row r="119" spans="1:11">
       <c r="B119" s="3" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>350</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="E119" s="3"/>
       <c r="F119" s="5">
-        <v>45179.708333333</v>
-      </c>
-      <c r="G119" s="5"/>
+        <v>45120.708333333</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:11">
       <c r="B120" s="3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="5">
         <v>45120.708333333</v>
       </c>
-      <c r="G120" s="5" t="b">
-        <v>0</v>
+      <c r="G120" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:11">
       <c r="B121" s="3" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="5">
-        <v>45120.708333333</v>
-      </c>
-      <c r="G121" s="5" t="b">
-        <v>0</v>
-      </c>
+        <v>45179.708333333</v>
+      </c>
+      <c r="G121" s="5"/>
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:11">
       <c r="B122" s="3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="5">
@@ -4600,66 +4558,66 @@
     </row>
     <row r="123" spans="1:11">
       <c r="B123" s="3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="5">
-        <v>45179.708333333</v>
-      </c>
-      <c r="G123" s="5"/>
+        <v>45120.708333333</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="H123" s="3"/>
     </row>
     <row r="124" spans="1:11">
       <c r="B124" s="3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="5">
-        <v>45120.708333333</v>
-      </c>
-      <c r="G124" s="5" t="b">
-        <v>0</v>
-      </c>
+        <v>45210.708333333</v>
+      </c>
+      <c r="G124" s="5"/>
       <c r="H124" s="3"/>
     </row>
     <row r="125" spans="1:11">
       <c r="B125" s="3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="5">
-        <v>45210.708333333</v>
+        <v>45179.708333333</v>
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="3"/>
     </row>
     <row r="126" spans="1:11">
       <c r="B126" s="3" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="5">
@@ -4670,13 +4628,13 @@
     </row>
     <row r="127" spans="1:11">
       <c r="B127" s="3" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="5">
@@ -4687,13 +4645,13 @@
     </row>
     <row r="128" spans="1:11">
       <c r="B128" s="3" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="5">
@@ -4704,13 +4662,13 @@
     </row>
     <row r="129" spans="1:11">
       <c r="B129" s="3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="5">
@@ -4721,13 +4679,13 @@
     </row>
     <row r="130" spans="1:11">
       <c r="B130" s="3" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="5">
@@ -4738,13 +4696,13 @@
     </row>
     <row r="131" spans="1:11">
       <c r="B131" s="3" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="5">
@@ -4755,30 +4713,30 @@
     </row>
     <row r="132" spans="1:11">
       <c r="B132" s="3" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="5">
-        <v>45179.708333333</v>
+        <v>45210.708333333</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="3"/>
     </row>
     <row r="133" spans="1:11">
       <c r="B133" s="3" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="5">
@@ -4788,599 +4746,617 @@
       <c r="H133" s="3"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="B134" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E134" s="3"/>
-      <c r="F134" s="5">
-        <v>45210.708333333</v>
-      </c>
-      <c r="G134" s="5"/>
-      <c r="H134" s="3"/>
+      <c r="A134" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="B135" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="5">
-        <v>45210.708333333</v>
-      </c>
-      <c r="G135" s="5"/>
-      <c r="H135" s="3"/>
+      <c r="B135" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" t="s">
-        <v>399</v>
+      <c r="B136" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E136" s="3"/>
+      <c r="F136" s="5">
+        <v>25598.708333333</v>
+      </c>
+      <c r="G136" s="5"/>
+      <c r="H136" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="B137" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>8</v>
+      <c r="B137" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="5">
+        <v>25598.708333333</v>
+      </c>
+      <c r="G137" s="5">
+        <v>45075.708333333</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="B138" s="3" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="5">
-        <v>25598.708333333</v>
-      </c>
-      <c r="G138" s="5"/>
+        <v>45113.708333333</v>
+      </c>
+      <c r="G138" s="5">
+        <v>45075.708333333</v>
+      </c>
       <c r="H138" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="B139" s="3" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E139" s="3"/>
+        <v>413</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>414</v>
+      </c>
       <c r="F139" s="5">
         <v>25598.708333333</v>
       </c>
-      <c r="G139" s="5">
-        <v>45075.708333333</v>
-      </c>
+      <c r="G139" s="5"/>
       <c r="H139" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="B140" s="3" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E140" s="3"/>
+        <v>417</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>418</v>
+      </c>
       <c r="F140" s="5">
-        <v>45113.708333333</v>
+        <v>25598.708333333</v>
       </c>
       <c r="G140" s="5">
-        <v>45075.708333333</v>
+        <v>45046.708333333</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="B141" s="3" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F141" s="5">
         <v>25598.708333333</v>
       </c>
-      <c r="G141" s="5"/>
+      <c r="G141" s="5">
+        <v>45046.708333333</v>
+      </c>
       <c r="H141" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="B142" s="3" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="F142" s="5">
-        <v>25598.708333333</v>
+        <v>45146.708333333</v>
       </c>
       <c r="G142" s="5">
-        <v>45046.708333333</v>
+        <v>45116.708333333</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="B143" s="3" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>422</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="E143" s="3"/>
       <c r="F143" s="5">
         <v>25598.708333333</v>
       </c>
       <c r="G143" s="5">
-        <v>45046.708333333</v>
+        <v>45073.708333333</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="B144" s="3" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>426</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="E144" s="3"/>
       <c r="F144" s="5">
-        <v>45146.708333333</v>
+        <v>25598.708333333</v>
       </c>
       <c r="G144" s="5">
-        <v>45116.708333333</v>
+        <v>45096.708333333</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="B145" s="3" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="5">
         <v>25598.708333333</v>
       </c>
-      <c r="G145" s="5">
-        <v>45073.708333333</v>
-      </c>
+      <c r="G145" s="5"/>
       <c r="H145" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="B146" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="5">
-        <v>25598.708333333</v>
-      </c>
-      <c r="G146" s="5">
-        <v>45096.708333333</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>33</v>
+      <c r="A146" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="B147" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E147" s="3"/>
-      <c r="F147" s="5">
-        <v>25598.708333333</v>
-      </c>
-      <c r="G147" s="5"/>
-      <c r="H147" s="3" t="s">
-        <v>33</v>
+      <c r="B147" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" t="s">
-        <v>436</v>
+      <c r="B148" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E148" s="3"/>
+      <c r="F148" s="5">
+        <v>45141.708333333</v>
+      </c>
+      <c r="G148" s="5">
+        <v>45168.708333333</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="B149" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>8</v>
+      <c r="B149" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E149" s="3"/>
+      <c r="F149" s="5">
+        <v>45141.708333333</v>
+      </c>
+      <c r="G149" s="5">
+        <v>45137.708333333</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="B150" s="3" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="5">
-        <v>45141.708333333</v>
+        <v>45144.708333333</v>
       </c>
       <c r="G150" s="5">
         <v>45168.708333333</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="B151" s="3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="5">
-        <v>45141.708333333</v>
+        <v>45144.708333333</v>
       </c>
       <c r="G151" s="5">
-        <v>45137.708333333</v>
+        <v>45187.708333333</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="B152" s="3" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="5">
         <v>45144.708333333</v>
       </c>
       <c r="G152" s="5">
-        <v>45168.708333333</v>
+        <v>45144.708333333</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="B153" s="3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="E153" s="3"/>
+        <v>456</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>457</v>
+      </c>
       <c r="F153" s="5">
-        <v>45144.708333333</v>
+        <v>45148.708333333</v>
       </c>
       <c r="G153" s="5">
-        <v>45187.708333333</v>
+        <v>45168.708333333</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="B154" s="3" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E154" s="3"/>
+        <v>460</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>461</v>
+      </c>
       <c r="F154" s="5">
-        <v>45144.708333333</v>
-      </c>
-      <c r="G154" s="5">
-        <v>45144.708333333</v>
-      </c>
+        <v>45148.708333333</v>
+      </c>
+      <c r="G154" s="5"/>
       <c r="H154" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="B155" s="3" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="F155" s="5">
-        <v>45148.708333333</v>
+        <v>45149.708333333</v>
       </c>
       <c r="G155" s="5">
-        <v>45168.708333333</v>
+        <v>45137.708333333</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="156" spans="1:11">
       <c r="B156" s="3" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="F156" s="5">
-        <v>45148.708333333</v>
-      </c>
-      <c r="G156" s="5"/>
+        <v>25613.708333333</v>
+      </c>
+      <c r="G156" s="5">
+        <v>45168.708333333</v>
+      </c>
       <c r="H156" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="B157" s="3" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F157" s="5">
-        <v>45149.708333333</v>
+        <v>45152.708333333</v>
       </c>
       <c r="G157" s="5">
-        <v>45137.708333333</v>
+        <v>45168.708333333</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="158" spans="1:11">
       <c r="B158" s="3" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>469</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="E158" s="3"/>
       <c r="F158" s="5">
-        <v>25613.708333333</v>
-      </c>
-      <c r="G158" s="5">
-        <v>45168.708333333</v>
-      </c>
+        <v>45155.708333333</v>
+      </c>
+      <c r="G158" s="5"/>
       <c r="H158" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="B159" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="F159" s="5">
-        <v>45152.708333333</v>
-      </c>
-      <c r="G159" s="5">
-        <v>45168.708333333</v>
-      </c>
-      <c r="H159" s="3" t="s">
-        <v>33</v>
+      <c r="A159" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="B160" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="E160" s="3"/>
-      <c r="F160" s="5">
-        <v>45155.708333333</v>
-      </c>
-      <c r="G160" s="5"/>
-      <c r="H160" s="3" t="s">
-        <v>33</v>
+      <c r="B160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" t="s">
-        <v>477</v>
+      <c r="B161" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F161" s="5">
+        <v>45161.708333333</v>
+      </c>
+      <c r="G161" s="5">
+        <v>45243.708333333</v>
+      </c>
+      <c r="H161" s="3">
+        <v>2</v>
+      </c>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="B162" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="B162" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5">
+        <v>45257.708333333</v>
+      </c>
+      <c r="H162" s="3">
         <v>4</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>483</v>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:11">
       <c r="B163" s="3" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="F163" s="5">
-        <v>45161.708333333</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="F163" s="5"/>
       <c r="G163" s="5">
-        <v>45243.708333333</v>
+        <v>45257.708333333</v>
       </c>
       <c r="H163" s="3">
         <v>2</v>
@@ -5393,25 +5369,23 @@
     </row>
     <row r="164" spans="1:11">
       <c r="B164" s="3" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="F164" s="5">
-        <v>25613.708333333</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="F164" s="5"/>
       <c r="G164" s="5">
-        <v>45040.708333333</v>
+        <v>44956.708333333</v>
       </c>
       <c r="H164" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -5421,25 +5395,25 @@
     </row>
     <row r="165" spans="1:11">
       <c r="B165" s="3" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="F165" s="5">
-        <v>25613.708333333</v>
+        <v>45167.708333333</v>
       </c>
       <c r="G165" s="5">
-        <v>44984.708333333</v>
+        <v>45194.708333333</v>
       </c>
       <c r="H165" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -5449,22 +5423,22 @@
     </row>
     <row r="166" spans="1:11">
       <c r="B166" s="3" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="F166" s="5">
-        <v>25613.708333333</v>
+        <v>45179.708333333</v>
       </c>
       <c r="G166" s="5">
-        <v>44956.708333333</v>
+        <v>45163.708333333</v>
       </c>
       <c r="H166" s="3">
         <v>2</v>
@@ -5477,22 +5451,22 @@
     </row>
     <row r="167" spans="1:11">
       <c r="B167" s="3" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="F167" s="5">
-        <v>45167.708333333</v>
+        <v>45170.708333333</v>
       </c>
       <c r="G167" s="5">
-        <v>45194.708333333</v>
+        <v>45012.708333333</v>
       </c>
       <c r="H167" s="3">
         <v>2</v>
@@ -5505,25 +5479,25 @@
     </row>
     <row r="168" spans="1:11">
       <c r="B168" s="3" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="F168" s="5">
-        <v>45179.708333333</v>
+        <v>44902.708333333</v>
       </c>
       <c r="G168" s="5">
-        <v>45163.708333333</v>
+        <v>44487.708333333</v>
       </c>
       <c r="H168" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
@@ -5533,85 +5507,27 @@
     </row>
     <row r="169" spans="1:11">
       <c r="B169" s="3" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="F169" s="5">
-        <v>45170.708333333</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="F169" s="5"/>
       <c r="G169" s="5">
-        <v>45012.708333333</v>
+        <v>44872.708333333</v>
       </c>
       <c r="H169" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="B170" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="F170" s="5">
-        <v>44902.708333333</v>
-      </c>
-      <c r="G170" s="5">
-        <v>44487.708333333</v>
-      </c>
-      <c r="H170" s="3">
-        <v>1</v>
-      </c>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="B171" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="F171" s="5">
-        <v>25613.708333333</v>
-      </c>
-      <c r="G171" s="5">
-        <v>44872.708333333</v>
-      </c>
-      <c r="H171" s="3">
-        <v>1</v>
-      </c>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5639,10 +5555,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L89" sqref="L89"/>
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5697,10 +5613,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>530</v>
@@ -5709,33 +5625,33 @@
         <v>531</v>
       </c>
       <c r="F5" s="5">
-        <v>45225.708333333</v>
+        <v>45196.708333333</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>6530</v>
+        <v>4480</v>
       </c>
       <c r="I5" s="3">
-        <v>261059</v>
+        <v>4850</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>532</v>
       </c>
       <c r="K5" s="3">
+        <v>55950</v>
+      </c>
+      <c r="L5" s="3">
         <v>261059</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>530</v>
@@ -5750,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>790</v>
+        <v>540</v>
       </c>
       <c r="I6" s="3">
         <v>1080</v>
@@ -5759,7 +5675,7 @@
         <v>533</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
+        <v>6961</v>
       </c>
       <c r="L6" s="3">
         <v>9449</v>
@@ -5767,10 +5683,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>530</v>
@@ -5779,7 +5695,7 @@
         <v>531</v>
       </c>
       <c r="F7" s="5">
-        <v>45197.708333333</v>
+        <v>45229.708333333</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -5788,24 +5704,24 @@
         <v>3000</v>
       </c>
       <c r="I7" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>534</v>
       </c>
       <c r="K7" s="3">
-        <v>47000</v>
+        <v>48500</v>
       </c>
       <c r="L7" s="3">
-        <v>74824</v>
+        <v>73324</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>530</v>
@@ -5814,7 +5730,7 @@
         <v>531</v>
       </c>
       <c r="F8" s="5">
-        <v>45196.708333333</v>
+        <v>45229.708333333</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -5826,56 +5742,56 @@
         <v>1000</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K8" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L8" s="3">
-        <v>19315</v>
+        <v>18315</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>530</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F9" s="5">
+        <v>45228.708333333</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="F9" s="5">
-        <v>45225.708333333</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>6020</v>
-      </c>
-      <c r="I9" s="3">
-        <v>240800</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>532</v>
-      </c>
       <c r="K9" s="3">
-        <v>28600</v>
+        <v>58800</v>
       </c>
       <c r="L9" s="3">
-        <v>240800</v>
+        <v>321200</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>530</v>
@@ -5907,10 +5823,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>530</v>
@@ -5919,7 +5835,7 @@
         <v>531</v>
       </c>
       <c r="F11" s="5">
-        <v>45173.708333333</v>
+        <v>45222.708333333</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -5934,18 +5850,18 @@
         <v>538</v>
       </c>
       <c r="K11" s="3">
-        <v>105224</v>
+        <v>110224</v>
       </c>
       <c r="L11" s="3">
-        <v>268727</v>
+        <v>263727</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>530</v>
@@ -6012,10 +5928,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>530</v>
@@ -6082,10 +5998,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>530</v>
@@ -6094,7 +6010,7 @@
         <v>531</v>
       </c>
       <c r="F16" s="5">
-        <v>45188.708333333</v>
+        <v>45218.708333333</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -6109,10 +6025,10 @@
         <v>543</v>
       </c>
       <c r="K16" s="3">
-        <v>119461</v>
+        <v>124461</v>
       </c>
       <c r="L16" s="3">
-        <v>156006</v>
+        <v>151006</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6164,7 +6080,7 @@
         <v>531</v>
       </c>
       <c r="F18" s="5">
-        <v>45201.708333333</v>
+        <v>45232.708333333</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -6179,18 +6095,18 @@
         <v>545</v>
       </c>
       <c r="K18" s="3">
-        <v>64722</v>
+        <v>67722</v>
       </c>
       <c r="L18" s="3">
-        <v>72504</v>
+        <v>69504</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>530</v>
@@ -6199,7 +6115,7 @@
         <v>531</v>
       </c>
       <c r="F19" s="5">
-        <v>45201.708333333</v>
+        <v>45232.708333333</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -6214,10 +6130,10 @@
         <v>545</v>
       </c>
       <c r="K19" s="3">
-        <v>97500</v>
+        <v>100000</v>
       </c>
       <c r="L19" s="3">
-        <v>38794</v>
+        <v>36294</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -6234,7 +6150,7 @@
         <v>531</v>
       </c>
       <c r="F20" s="5">
-        <v>45198.708333333</v>
+        <v>45228.708333333</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -6246,13 +6162,13 @@
         <v>4000</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K20" s="3">
-        <v>118000</v>
+        <v>122000</v>
       </c>
       <c r="L20" s="3">
-        <v>42136</v>
+        <v>38136</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -6269,7 +6185,7 @@
         <v>531</v>
       </c>
       <c r="F21" s="5">
-        <v>45202.708333333</v>
+        <v>45228.708333333</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -6281,21 +6197,21 @@
         <v>5000</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="K21" s="3">
-        <v>141500</v>
+        <v>146500</v>
       </c>
       <c r="L21" s="3">
-        <v>328500</v>
+        <v>323500</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>530</v>
@@ -6304,7 +6220,7 @@
         <v>531</v>
       </c>
       <c r="F22" s="5">
-        <v>45194.708333333</v>
+        <v>45224.708333333</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -6316,13 +6232,13 @@
         <v>3820</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K22" s="3">
-        <v>87567</v>
+        <v>91387</v>
       </c>
       <c r="L22" s="3">
-        <v>14110</v>
+        <v>10290</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -6339,7 +6255,7 @@
         <v>531</v>
       </c>
       <c r="F23" s="5">
-        <v>45203.708333333</v>
+        <v>45233.708333333</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -6351,13 +6267,13 @@
         <v>4000</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K23" s="3">
-        <v>90000</v>
+        <v>94000</v>
       </c>
       <c r="L23" s="3">
-        <v>136000</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -6374,7 +6290,7 @@
         <v>531</v>
       </c>
       <c r="F24" s="5">
-        <v>45214.708333333</v>
+        <v>45228.708333333</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -6383,24 +6299,24 @@
         <v>3500</v>
       </c>
       <c r="I24" s="3">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="K24" s="3">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L24" s="3">
-        <v>179800</v>
+        <v>173800</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="B25" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>530</v>
@@ -6409,7 +6325,7 @@
         <v>531</v>
       </c>
       <c r="F25" s="5">
-        <v>45209.708333333</v>
+        <v>45231.708333333</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -6418,16 +6334,16 @@
         <v>5000</v>
       </c>
       <c r="I25" s="3">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K25" s="3">
-        <v>92000</v>
+        <v>93000</v>
       </c>
       <c r="L25" s="3">
-        <v>202792</v>
+        <v>201792</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -6444,7 +6360,7 @@
         <v>531</v>
       </c>
       <c r="F26" s="5">
-        <v>45207.708333333</v>
+        <v>45229.708333333</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -6456,13 +6372,13 @@
         <v>3000</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="K26" s="3">
-        <v>96500</v>
+        <v>99500</v>
       </c>
       <c r="L26" s="3">
-        <v>29500</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -6479,7 +6395,7 @@
         <v>531</v>
       </c>
       <c r="F27" s="5">
-        <v>45203.708333333</v>
+        <v>45235.708333333</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -6491,21 +6407,21 @@
         <v>2000</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K27" s="3">
-        <v>79500</v>
+        <v>81500</v>
       </c>
       <c r="L27" s="3">
-        <v>163718</v>
+        <v>161718</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="B28" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>530</v>
@@ -6514,7 +6430,7 @@
         <v>531</v>
       </c>
       <c r="F28" s="5">
-        <v>45202.708333333</v>
+        <v>45232.708333333</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -6526,21 +6442,21 @@
         <v>2000</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K28" s="3">
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="L28" s="3">
-        <v>45180</v>
+        <v>43180</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="B29" s="3" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>530</v>
@@ -6549,33 +6465,33 @@
         <v>531</v>
       </c>
       <c r="F29" s="5">
-        <v>45015.708333333</v>
+        <v>45232.708333333</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>2500</v>
+        <v>4770</v>
       </c>
       <c r="I29" s="3">
-        <v>1000</v>
+        <v>4770</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="K29" s="3">
-        <v>3000</v>
+        <v>66780</v>
       </c>
       <c r="L29" s="3">
-        <v>18234</v>
+        <v>137511</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>530</v>
@@ -6584,33 +6500,33 @@
         <v>531</v>
       </c>
       <c r="F30" s="5">
-        <v>45187.708333333</v>
+        <v>45015.708333333</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <v>4770</v>
+        <v>2500</v>
       </c>
       <c r="I30" s="3">
-        <v>4770</v>
+        <v>1000</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K30" s="3">
-        <v>62010</v>
+        <v>3000</v>
       </c>
       <c r="L30" s="3">
-        <v>142281</v>
+        <v>25166</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="B31" s="3" t="s">
-        <v>279</v>
+        <v>423</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>280</v>
+        <v>424</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>530</v>
@@ -6619,33 +6535,33 @@
         <v>531</v>
       </c>
       <c r="F31" s="5">
-        <v>45015.708333333</v>
+        <v>45233.708333333</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <v>2500</v>
+        <v>3040</v>
       </c>
       <c r="I31" s="3">
-        <v>1000</v>
+        <v>3040</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="K31" s="3">
-        <v>3000</v>
+        <v>54720</v>
       </c>
       <c r="L31" s="3">
-        <v>25166</v>
+        <v>91200</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="B32" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>530</v>
@@ -6654,33 +6570,33 @@
         <v>531</v>
       </c>
       <c r="F32" s="5">
-        <v>45203.708333333</v>
+        <v>45196.708333333</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>3040</v>
+        <v>3580</v>
       </c>
       <c r="I32" s="3">
-        <v>3040</v>
+        <v>3580</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="K32" s="3">
-        <v>51680</v>
+        <v>57220</v>
       </c>
       <c r="L32" s="3">
-        <v>94240</v>
+        <v>178948</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="B33" s="3" t="s">
-        <v>427</v>
+        <v>286</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>428</v>
+        <v>287</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>530</v>
@@ -6689,33 +6605,33 @@
         <v>531</v>
       </c>
       <c r="F33" s="5">
-        <v>45196.708333333</v>
+        <v>45226.708333333</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>3580</v>
+        <v>4000</v>
       </c>
       <c r="I33" s="3">
-        <v>3580</v>
+        <v>4000</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="K33" s="3">
-        <v>57220</v>
+        <v>150000</v>
       </c>
       <c r="L33" s="3">
-        <v>178948</v>
+        <v>32093</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="B34" s="3" t="s">
-        <v>283</v>
+        <v>500</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>284</v>
+        <v>501</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>530</v>
@@ -6724,33 +6640,33 @@
         <v>531</v>
       </c>
       <c r="F34" s="5">
-        <v>45193.708333333</v>
+        <v>45225.708333333</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="I34" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K34" s="3">
-        <v>146000</v>
+        <v>79091</v>
       </c>
       <c r="L34" s="3">
-        <v>36093</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="B35" s="3" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>530</v>
@@ -6759,33 +6675,33 @@
         <v>531</v>
       </c>
       <c r="F35" s="5">
-        <v>45193.708333333</v>
+        <v>45173.708333333</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="I35" s="3">
         <v>3000</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K35" s="3">
-        <v>76091</v>
+        <v>48500</v>
       </c>
       <c r="L35" s="3">
-        <v>23000</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="B36" s="3" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>530</v>
@@ -6794,95 +6710,95 @@
         <v>531</v>
       </c>
       <c r="F36" s="5">
-        <v>45173.708333333</v>
+        <v>45233.708333333</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="I36" s="3">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="K36" s="3">
-        <v>48500</v>
+        <v>43000</v>
       </c>
       <c r="L36" s="3">
-        <v>97000</v>
+        <v>34584</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="3" t="s">
-        <v>512</v>
+        <v>302</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>513</v>
+        <v>303</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>530</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F37" s="5">
-        <v>45204.708333333</v>
+        <v>45165.708333333</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
       </c>
       <c r="H37" s="3">
-        <v>2000</v>
+        <v>3940</v>
       </c>
       <c r="I37" s="3">
-        <v>1500</v>
+        <v>3940</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K37" s="3">
-        <v>41500</v>
+        <v>67946</v>
       </c>
       <c r="L37" s="3">
-        <v>36084</v>
+        <v>168122</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="B38" s="3" t="s">
-        <v>299</v>
+        <v>555</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>300</v>
+        <v>556</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F38" s="5">
-        <v>45165.708333333</v>
+        <v>45232.708333333</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
       </c>
       <c r="H38" s="3">
-        <v>3940</v>
+        <v>2917</v>
       </c>
       <c r="I38" s="3">
-        <v>3940</v>
+        <v>3000</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="K38" s="3">
-        <v>67946</v>
+        <v>33834</v>
       </c>
       <c r="L38" s="3">
-        <v>168122</v>
+        <v>36166</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -6893,136 +6809,136 @@
         <v>559</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F39" s="5">
-        <v>45200.708333333</v>
+        <v>45225.708333333</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
       </c>
       <c r="H39" s="3">
-        <v>2917</v>
+        <v>550</v>
       </c>
       <c r="I39" s="3">
-        <v>3000</v>
+        <v>550</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="K39" s="3">
-        <v>30834</v>
+        <v>7595</v>
       </c>
       <c r="L39" s="3">
-        <v>39166</v>
+        <v>8890</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="B40" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F40" s="5">
+        <v>44462.708333333</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>500</v>
+      </c>
+      <c r="I40" s="3">
+        <v>500</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="F40" s="5">
-        <v>45200.708333333</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>550</v>
-      </c>
-      <c r="I40" s="3">
-        <v>550</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>561</v>
-      </c>
       <c r="K40" s="3">
-        <v>7045</v>
+        <v>2500</v>
       </c>
       <c r="L40" s="3">
-        <v>9440</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="B41" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>565</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F41" s="5">
-        <v>44462.708333333</v>
+        <v>45222.708333333</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>500</v>
+        <v>3900</v>
       </c>
       <c r="I41" s="3">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="K41" s="3">
-        <v>2500</v>
+        <v>80000</v>
       </c>
       <c r="L41" s="3">
-        <v>1850</v>
+        <v>36953</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="B42" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>556</v>
-      </c>
       <c r="F42" s="5">
-        <v>45190.708333333</v>
+        <v>45227.708333333</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I42" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>569</v>
       </c>
       <c r="K42" s="3">
-        <v>70000</v>
+        <v>44000</v>
       </c>
       <c r="L42" s="3">
-        <v>46953</v>
+        <v>196000</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -7033,83 +6949,83 @@
         <v>571</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F43" s="5">
-        <v>45198.708333333</v>
+        <v>45229.708333333</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>4000</v>
+        <v>5120</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="K43" s="3">
-        <v>40000</v>
+        <v>51200</v>
       </c>
       <c r="L43" s="3">
-        <v>200000</v>
+        <v>440320</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="B44" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F44" s="5">
+        <v>45217.708333333</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>850</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="F44" s="5">
-        <v>45198.708333333</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>5120</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>546</v>
-      </c>
       <c r="K44" s="3">
-        <v>46080</v>
+        <v>5950</v>
       </c>
       <c r="L44" s="3">
-        <v>445440</v>
+        <v>54880</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="B45" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>577</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F45" s="5">
-        <v>45178.708333333</v>
+        <v>45233.708333333</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -7118,86 +7034,86 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>850</v>
+        <v>6480</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
       <c r="K45" s="3">
-        <v>5100</v>
+        <v>82960</v>
       </c>
       <c r="L45" s="3">
-        <v>55730</v>
+        <v>142560</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="B46" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F46" s="5">
+        <v>45197.708333333</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>5190</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="F46" s="5">
-        <v>45198.708333333</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>6480</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>546</v>
-      </c>
       <c r="K46" s="3">
-        <v>76480</v>
+        <v>28990</v>
       </c>
       <c r="L46" s="3">
-        <v>149040</v>
+        <v>406310</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="B47" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F47" s="5">
+        <v>45053.708333333</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="F47" s="5">
-        <v>45197.708333333</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>5190</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>534</v>
-      </c>
       <c r="K47" s="3">
-        <v>28990</v>
+        <v>7020</v>
       </c>
       <c r="L47" s="3">
-        <v>406310</v>
+        <v>413820</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -7208,13 +7124,13 @@
         <v>584</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F48" s="5">
-        <v>45053.708333333</v>
+        <v>45235.708333333</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -7223,261 +7139,261 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="K48" s="3">
-        <v>7020</v>
+        <v>18200</v>
       </c>
       <c r="L48" s="3">
-        <v>413820</v>
+        <v>158920</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="B49" s="3" t="s">
-        <v>586</v>
+        <v>320</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>587</v>
+        <v>321</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>572</v>
+        <v>530</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>573</v>
+        <v>531</v>
       </c>
       <c r="F49" s="5">
-        <v>45203.708333333</v>
+        <v>44994.708333333</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I49" s="3">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>548</v>
+        <v>585</v>
       </c>
       <c r="K49" s="3">
-        <v>15800</v>
+        <v>5000</v>
       </c>
       <c r="L49" s="3">
-        <v>161320</v>
+        <v>314870</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="B50" s="3" t="s">
-        <v>317</v>
+        <v>430</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>318</v>
+        <v>431</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>530</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F50" s="5">
-        <v>44994.708333333</v>
+        <v>45231.708333333</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
       </c>
       <c r="H50" s="3">
-        <v>3500</v>
+        <v>4770</v>
       </c>
       <c r="I50" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="K50" s="3">
-        <v>5000</v>
+        <v>64570</v>
       </c>
       <c r="L50" s="3">
-        <v>314870</v>
+        <v>251059</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="B51" s="3" t="s">
-        <v>430</v>
+        <v>586</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>431</v>
+        <v>587</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F51" s="5">
-        <v>45200.708333333</v>
+        <v>45234.708333333</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
       </c>
       <c r="H51" s="3">
-        <v>4770</v>
+        <v>3000</v>
       </c>
       <c r="I51" s="3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="K51" s="3">
-        <v>59570</v>
+        <v>73966</v>
       </c>
       <c r="L51" s="3">
-        <v>256059</v>
+        <v>210314</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="B52" s="3" t="s">
-        <v>589</v>
+        <v>335</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>590</v>
+        <v>336</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="F52" s="5">
-        <v>45203.708333333</v>
+        <v>45224.708333333</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I52" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K52" s="3">
-        <v>70966</v>
+        <v>60000</v>
       </c>
       <c r="L52" s="3">
-        <v>213314</v>
+        <v>354676</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="B53" s="3" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>530</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F53" s="5">
-        <v>45190.708333333</v>
+        <v>45056.708333333</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
       </c>
       <c r="H53" s="3">
-        <v>5000</v>
+        <v>3540</v>
       </c>
       <c r="I53" s="3">
-        <v>5000</v>
+        <v>3540</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="K53" s="3">
-        <v>55000</v>
+        <v>17700</v>
       </c>
       <c r="L53" s="3">
-        <v>359676</v>
+        <v>123057</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="B54" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>530</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F54" s="5">
-        <v>45056.708333333</v>
+        <v>45215.708333333</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>3540</v>
+        <v>3870</v>
       </c>
       <c r="I54" s="3">
-        <v>3540</v>
+        <v>4000</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K54" s="3">
-        <v>17700</v>
+        <v>43220</v>
       </c>
       <c r="L54" s="3">
-        <v>123057</v>
+        <v>118361</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="B55" s="3" t="s">
-        <v>341</v>
+        <v>591</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>342</v>
+        <v>592</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>530</v>
+        <v>567</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="F55" s="5">
-        <v>45215.708333333</v>
+        <v>45232.708333333</v>
       </c>
       <c r="G55" s="3">
         <v>0</v>
       </c>
       <c r="H55" s="3">
-        <v>3870</v>
+        <v>0</v>
       </c>
       <c r="I55" s="3">
-        <v>4000</v>
+        <v>3570</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>592</v>
+        <v>545</v>
       </c>
       <c r="K55" s="3">
-        <v>43220</v>
+        <v>24990</v>
       </c>
       <c r="L55" s="3">
-        <v>118361</v>
+        <v>274570</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -7488,13 +7404,13 @@
         <v>594</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F56" s="5">
-        <v>45202.708333333</v>
+        <v>45231.708333333</v>
       </c>
       <c r="G56" s="3">
         <v>0</v>
@@ -7503,16 +7419,16 @@
         <v>0</v>
       </c>
       <c r="I56" s="3">
-        <v>3570</v>
+        <v>3800</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K56" s="3">
-        <v>21420</v>
+        <v>11360</v>
       </c>
       <c r="L56" s="3">
-        <v>278140</v>
+        <v>238120</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -7523,13 +7439,13 @@
         <v>596</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F57" s="5">
-        <v>45203.708333333</v>
+        <v>45232.708333333</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -7538,16 +7454,16 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>7560</v>
+        <v>2000</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K57" s="3">
-        <v>7560</v>
+        <v>6000</v>
       </c>
       <c r="L57" s="3">
-        <v>241920</v>
+        <v>367680</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -7558,13 +7474,13 @@
         <v>598</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F58" s="5">
-        <v>45201.708333333</v>
+        <v>45234.708333333</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -7573,16 +7489,16 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="K58" s="3">
-        <v>4000</v>
+        <v>18800</v>
       </c>
       <c r="L58" s="3">
-        <v>369680</v>
+        <v>158320</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -7593,13 +7509,13 @@
         <v>600</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F59" s="5">
-        <v>45202.708333333</v>
+        <v>45235.708333333</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -7608,16 +7524,16 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>2400</v>
+        <v>4950</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="K59" s="3">
-        <v>15400</v>
+        <v>34650</v>
       </c>
       <c r="L59" s="3">
-        <v>161720</v>
+        <v>440550</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -7628,13 +7544,13 @@
         <v>602</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F60" s="5">
-        <v>45193.708333333</v>
+        <v>45232.708333333</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -7643,16 +7559,16 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>4950</v>
+        <v>2550</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="K60" s="3">
-        <v>29700</v>
+        <v>28000</v>
       </c>
       <c r="L60" s="3">
-        <v>445500</v>
+        <v>94400</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -7663,10 +7579,10 @@
         <v>604</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F61" s="5">
         <v>45203.708333333</v>
@@ -7678,371 +7594,371 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>2550</v>
+        <v>6300</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>548</v>
+        <v>605</v>
       </c>
       <c r="K61" s="3">
-        <v>25450</v>
+        <v>56700</v>
       </c>
       <c r="L61" s="3">
-        <v>96950</v>
+        <v>699300</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="B62" s="3" t="s">
-        <v>605</v>
+        <v>357</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>606</v>
+        <v>358</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>572</v>
+        <v>530</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>573</v>
+        <v>535</v>
       </c>
       <c r="F62" s="5">
-        <v>45203.708333333</v>
+        <v>45205.708333333</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>2060</v>
       </c>
       <c r="I62" s="3">
-        <v>6300</v>
+        <v>2060</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="K62" s="3">
-        <v>56700</v>
+        <v>10300</v>
       </c>
       <c r="L62" s="3">
-        <v>699300</v>
+        <v>112775</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="B63" s="3" t="s">
-        <v>354</v>
+        <v>606</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>355</v>
+        <v>607</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F63" s="5">
-        <v>45205.708333333</v>
+        <v>45229.708333333</v>
       </c>
       <c r="G63" s="3">
         <v>0</v>
       </c>
       <c r="H63" s="3">
-        <v>2060</v>
+        <v>490</v>
       </c>
       <c r="I63" s="3">
-        <v>2060</v>
+        <v>490</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="K63" s="3">
-        <v>10300</v>
+        <v>3920</v>
       </c>
       <c r="L63" s="3">
-        <v>112775</v>
+        <v>13507</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="B64" s="3" t="s">
-        <v>607</v>
+        <v>375</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F64" s="5">
+        <v>45223.708333333</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I64" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="F64" s="5">
-        <v>45197.708333333</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <v>490</v>
-      </c>
-      <c r="I64" s="3">
-        <v>490</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>534</v>
-      </c>
       <c r="K64" s="3">
-        <v>3430</v>
+        <v>31166</v>
       </c>
       <c r="L64" s="3">
-        <v>13997</v>
+        <v>155501</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="B65" s="3" t="s">
-        <v>372</v>
+        <v>609</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>373</v>
+        <v>610</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>530</v>
+        <v>567</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="F65" s="5">
-        <v>45192.708333333</v>
+        <v>45223.708333333</v>
       </c>
       <c r="G65" s="3">
         <v>0</v>
       </c>
       <c r="H65" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I65" s="3">
-        <v>2500</v>
+        <v>4750</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K65" s="3">
-        <v>28666</v>
+        <v>42760</v>
       </c>
       <c r="L65" s="3">
-        <v>158001</v>
+        <v>291996</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="B66" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>573</v>
+        <v>535</v>
       </c>
       <c r="F66" s="5">
-        <v>45193.708333333</v>
+        <v>45172.708333333</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I66" s="3">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>554</v>
+        <v>613</v>
       </c>
       <c r="K66" s="3">
-        <v>38010</v>
+        <v>15000</v>
       </c>
       <c r="L66" s="3">
-        <v>296746</v>
+        <v>37184</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="B67" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F67" s="5">
-        <v>45172.708333333</v>
+        <v>45228.708333333</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
       </c>
       <c r="H67" s="3">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="I67" s="3">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>614</v>
+        <v>536</v>
       </c>
       <c r="K67" s="3">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="L67" s="3">
-        <v>37184</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="B68" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F68" s="5">
-        <v>45198.708333333</v>
+        <v>45223.708333333</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
       </c>
       <c r="H68" s="3">
-        <v>500</v>
+        <v>2940</v>
       </c>
       <c r="I68" s="3">
-        <v>500</v>
+        <v>2940</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
       <c r="K68" s="3">
-        <v>2000</v>
+        <v>5880</v>
       </c>
       <c r="L68" s="3">
-        <v>5891</v>
+        <v>29384</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="B69" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F69" s="5">
-        <v>45200.708333333</v>
+        <v>45214.708333333</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
       </c>
       <c r="H69" s="3">
-        <v>2940</v>
+        <v>5010</v>
       </c>
       <c r="I69" s="3">
-        <v>2940</v>
+        <v>5010</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>561</v>
+        <v>620</v>
       </c>
       <c r="K69" s="3">
-        <v>2940</v>
+        <v>35010</v>
       </c>
       <c r="L69" s="3">
-        <v>32324</v>
+        <v>263635</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="B70" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F70" s="5">
-        <v>45214.708333333</v>
+        <v>45223.708333333</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>5010</v>
+        <v>5340</v>
       </c>
       <c r="I70" s="3">
-        <v>5010</v>
+        <v>6080</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
       <c r="K70" s="3">
-        <v>35010</v>
+        <v>37480</v>
       </c>
       <c r="L70" s="3">
-        <v>263635</v>
+        <v>212113</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="B71" s="3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F71" s="5">
-        <v>45195.708333333</v>
+        <v>45229.708333333</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
       </c>
       <c r="H71" s="3">
-        <v>5340</v>
+        <v>900</v>
       </c>
       <c r="I71" s="3">
-        <v>6080</v>
+        <v>900</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>623</v>
+        <v>534</v>
       </c>
       <c r="K71" s="3">
-        <v>31400</v>
+        <v>900</v>
       </c>
       <c r="L71" s="3">
-        <v>218193</v>
+        <v>29100</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -8082,7 +7998,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -8122,7 +8038,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -8162,7 +8078,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -8202,7 +8118,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -8219,13 +8135,13 @@
         <v>522</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>525</v>
@@ -8242,10 +8158,10 @@
     </row>
     <row r="82" spans="1:12">
       <c r="B82" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>530</v>
@@ -8262,7 +8178,7 @@
         <v>500</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K82" s="3">
         <v>0</v>
@@ -8273,10 +8189,10 @@
     </row>
     <row r="83" spans="1:12">
       <c r="B83" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>530</v>
@@ -8293,7 +8209,7 @@
         <v>3000</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -8304,10 +8220,10 @@
     </row>
     <row r="84" spans="1:12">
       <c r="B84" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>530</v>
@@ -8324,7 +8240,7 @@
         <v>4860</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K84" s="3">
         <v>0</v>
@@ -8335,16 +8251,16 @@
     </row>
     <row r="85" spans="1:12">
       <c r="B85" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="3">
@@ -8355,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K85" s="3">
         <v>0</v>
@@ -8366,16 +8282,16 @@
     </row>
     <row r="86" spans="1:12">
       <c r="B86" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="3">
@@ -8386,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K86" s="3">
         <v>0</v>
@@ -8417,7 +8333,7 @@
         <v>5000</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K87" s="3">
         <v>0</v>
@@ -8428,10 +8344,10 @@
     </row>
     <row r="88" spans="1:12">
       <c r="B88" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>530</v>
@@ -8448,7 +8364,7 @@
         <v>4500</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K88" s="3">
         <v>0</v>
@@ -8459,16 +8375,16 @@
     </row>
     <row r="89" spans="1:12">
       <c r="B89" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>530</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="3">
@@ -8479,13 +8395,44 @@
         <v>2750</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>546</v>
+        <v>644</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>220000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="B90" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="3">
+        <v>43702</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
+      </c>
+      <c r="L90" s="3">
+        <v>437025</v>
       </c>
     </row>
   </sheetData>

--- a/public/tmp/legislation.xlsx
+++ b/public/tmp/legislation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="626">
   <si>
     <t>รายงานสถานะลูกหนี้ฟ้อง</t>
   </si>
@@ -51,219 +51,210 @@
     <t>นาย สันติสุข  สีเพ็ญ</t>
   </si>
   <si>
+    <t>กำหนดการ 4 วัน</t>
+  </si>
+  <si>
+    <t>P03-65180008</t>
+  </si>
+  <si>
+    <t>นาย สุนทร  บุญกระจ่าง</t>
+  </si>
+  <si>
+    <t>รอดำเนินการ</t>
+  </si>
+  <si>
+    <t>นางสาว อนัญญา  ชัยรัตน์</t>
+  </si>
+  <si>
+    <t>P03-65010051</t>
+  </si>
+  <si>
+    <t>นาย ภูวดล  สุขคำ</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ ชั้นสืบพยาน</t>
+  </si>
+  <si>
+    <t>วันที่สืบพยาน</t>
+  </si>
+  <si>
+    <t>P05-65150001</t>
+  </si>
+  <si>
+    <t>นาย พงศกร  เริงการ</t>
+  </si>
+  <si>
+    <t>ผบ.166/2566</t>
+  </si>
+  <si>
     <t>กำหนดการ 5 วัน</t>
   </si>
   <si>
-    <t>P03-65180008</t>
-  </si>
-  <si>
-    <t>นาย สุนทร  บุญกระจ่าง</t>
-  </si>
-  <si>
-    <t>รอดำเนินการ</t>
-  </si>
-  <si>
-    <t>นางสาว อนัญญา  ชัยรัตน์</t>
-  </si>
-  <si>
-    <t>P03-65010051</t>
-  </si>
-  <si>
-    <t>นาย ภูวดล  สุขคำ</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ ชั้นสืบพยาน</t>
-  </si>
-  <si>
-    <t>วันที่สืบพยาน</t>
-  </si>
-  <si>
-    <t>P05-65150001</t>
-  </si>
-  <si>
-    <t>นาย พงศกร  เริงการ</t>
-  </si>
-  <si>
-    <t>ผบ.166/2566</t>
+    <t>P03-65010040</t>
+  </si>
+  <si>
+    <t>นาย ศราวุธ  บ่อหนา</t>
+  </si>
+  <si>
+    <t>ผบ.E3289/2566</t>
+  </si>
+  <si>
+    <t>101-65170003</t>
+  </si>
+  <si>
+    <t>นาย พงษ์พัฒน์  ไกรเกรอะ</t>
+  </si>
+  <si>
+    <t>ผบ.E4125</t>
+  </si>
+  <si>
+    <t>P05-64050010</t>
+  </si>
+  <si>
+    <t>นาง ธณษพร  ธงไชย</t>
+  </si>
+  <si>
+    <t>ผบ.457/2566</t>
+  </si>
+  <si>
+    <t>P05-65040002</t>
+  </si>
+  <si>
+    <t>นางสาว ภาศินี  อยู่ทองอินทร์</t>
+  </si>
+  <si>
+    <t>ผบ.703/2566</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ ชั้นส่งคำบังคับ</t>
+  </si>
+  <si>
+    <t>กำหนดวันส่งคำบังคับ</t>
+  </si>
+  <si>
+    <t>วันที่ส่งคำบังคับ</t>
+  </si>
+  <si>
+    <t>P03-65050071</t>
+  </si>
+  <si>
+    <t>นางสาว ภาวิณี  ฮันแย็ก</t>
+  </si>
+  <si>
+    <t>ผบ.E3663/2566</t>
+  </si>
+  <si>
+    <t>กำหนดการ 31 วัน</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ ชั้นตรวจผลหมาย</t>
+  </si>
+  <si>
+    <t>กำหนดวันตรวจผลหมาย</t>
+  </si>
+  <si>
+    <t>วันที่ตรวจผลหมาย</t>
+  </si>
+  <si>
+    <t>P03-65110041</t>
+  </si>
+  <si>
+    <t>น.ส. ราตรี  บัวแสง</t>
+  </si>
+  <si>
+    <t>ผบ.E2654/2566</t>
+  </si>
+  <si>
+    <t>P03-65140015</t>
+  </si>
+  <si>
+    <t>นาย นฤเบศร์  เครือจันทร์</t>
+  </si>
+  <si>
+    <t>ผบ.194/2566</t>
+  </si>
+  <si>
+    <t>กำหนดการ 3 วัน</t>
+  </si>
+  <si>
+    <t>P05-65100010</t>
+  </si>
+  <si>
+    <t>นาย วรรณโน  นกศรีแก้ว</t>
+  </si>
+  <si>
+    <t>ผบ552/66</t>
+  </si>
+  <si>
+    <t>101-64020008</t>
+  </si>
+  <si>
+    <t>นาย ติณณมินทร์  ยิ่งดี</t>
+  </si>
+  <si>
+    <t>ผบ.522/2566</t>
+  </si>
+  <si>
+    <t>101-63010057</t>
+  </si>
+  <si>
+    <t>นาย บุญเลิศ  มณีฉาย</t>
+  </si>
+  <si>
+    <t>ผบ.273/66</t>
+  </si>
+  <si>
+    <t>P04-65060011</t>
+  </si>
+  <si>
+    <t>น.ส. พรทิพย์  ยิ่งขจร</t>
+  </si>
+  <si>
+    <t>ผบE3146/66</t>
+  </si>
+  <si>
+    <t>101-63160002</t>
+  </si>
+  <si>
+    <t>นาย อนันต์  ทองแก้ว</t>
+  </si>
+  <si>
+    <t>ผบ593/66</t>
+  </si>
+  <si>
+    <t>P06-65160001</t>
+  </si>
+  <si>
+    <t>ผบ582/66</t>
+  </si>
+  <si>
+    <t>P06-65140024</t>
+  </si>
+  <si>
+    <t>ผบ.639/2566</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ ชั้นตั้งเจ้าพนักงาน</t>
+  </si>
+  <si>
+    <t>กำหนดวันตั้งเจ้าพนักงาน</t>
+  </si>
+  <si>
+    <t>วันที่ตั้งเจ้าพนักงาน</t>
+  </si>
+  <si>
+    <t>101-64230002</t>
+  </si>
+  <si>
+    <t>นางสาว จันทร์จิรา  จันทร์แหยม</t>
+  </si>
+  <si>
+    <t>ผบ392/66</t>
   </si>
   <si>
     <t>กำหนดการ 6 วัน</t>
   </si>
   <si>
-    <t>P03-65010040</t>
-  </si>
-  <si>
-    <t>นาย ศราวุธ  บ่อหนา</t>
-  </si>
-  <si>
-    <t>ผบ.E3289/2566</t>
-  </si>
-  <si>
-    <t>101-65170003</t>
-  </si>
-  <si>
-    <t>นาย พงษ์พัฒน์  ไกรเกรอะ</t>
-  </si>
-  <si>
-    <t>ผบ.E4125</t>
-  </si>
-  <si>
-    <t>P05-64050010</t>
-  </si>
-  <si>
-    <t>นาง ธณษพร  ธงไชย</t>
-  </si>
-  <si>
-    <t>ผบ.457/2566</t>
-  </si>
-  <si>
-    <t>P05-65040002</t>
-  </si>
-  <si>
-    <t>นางสาว ภาศินี  อยู่ทองอินทร์</t>
-  </si>
-  <si>
-    <t>ผบ.703/2566</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ ชั้นส่งคำบังคับ</t>
-  </si>
-  <si>
-    <t>กำหนดวันส่งคำบังคับ</t>
-  </si>
-  <si>
-    <t>วันที่ส่งคำบังคับ</t>
-  </si>
-  <si>
-    <t>P03-65050071</t>
-  </si>
-  <si>
-    <t>นางสาว ภาวิณี  ฮันแย็ก</t>
-  </si>
-  <si>
-    <t>ผบ.E3663/2566</t>
-  </si>
-  <si>
-    <t>กำหนดการ 32 วัน</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ ชั้นตรวจผลหมาย</t>
-  </si>
-  <si>
-    <t>กำหนดวันตรวจผลหมาย</t>
-  </si>
-  <si>
-    <t>วันที่ตรวจผลหมาย</t>
-  </si>
-  <si>
-    <t>P03-65110041</t>
-  </si>
-  <si>
-    <t>น.ส. ราตรี  บัวแสง</t>
-  </si>
-  <si>
-    <t>ผบ.E2654/2566</t>
-  </si>
-  <si>
-    <t>P03-65140015</t>
-  </si>
-  <si>
-    <t>นาย นฤเบศร์  เครือจันทร์</t>
-  </si>
-  <si>
-    <t>ผบ.194/2566</t>
-  </si>
-  <si>
-    <t>กำหนดการ 4 วัน</t>
-  </si>
-  <si>
-    <t>P05-65100010</t>
-  </si>
-  <si>
-    <t>นาย วรรณโน  นกศรีแก้ว</t>
-  </si>
-  <si>
-    <t>ผบ552/66</t>
-  </si>
-  <si>
-    <t>101-64020008</t>
-  </si>
-  <si>
-    <t>นาย ติณณมินทร์  ยิ่งดี</t>
-  </si>
-  <si>
-    <t>ผบ.522/2566</t>
-  </si>
-  <si>
-    <t>101-63010057</t>
-  </si>
-  <si>
-    <t>นาย บุญเลิศ  มณีฉาย</t>
-  </si>
-  <si>
-    <t>ผบ.273/66</t>
-  </si>
-  <si>
-    <t>P04-65060011</t>
-  </si>
-  <si>
-    <t>น.ส. พรทิพย์  ยิ่งขจร</t>
-  </si>
-  <si>
-    <t>ผบE3146/66</t>
-  </si>
-  <si>
-    <t>101-63160002</t>
-  </si>
-  <si>
-    <t>นาย อนันต์  ทองแก้ว</t>
-  </si>
-  <si>
-    <t>ผบ593/66</t>
-  </si>
-  <si>
-    <t>P06-65160001</t>
-  </si>
-  <si>
-    <t>ผบ582/66</t>
-  </si>
-  <si>
-    <t>P06-65140024</t>
-  </si>
-  <si>
-    <t>ผบ.639/2566</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ ชั้นตั้งเจ้าพนักงาน</t>
-  </si>
-  <si>
-    <t>กำหนดวันตั้งเจ้าพนักงาน</t>
-  </si>
-  <si>
-    <t>วันที่ตั้งเจ้าพนักงาน</t>
-  </si>
-  <si>
-    <t>101-64230002</t>
-  </si>
-  <si>
-    <t>นางสาว จันทร์จิรา  จันทร์แหยม</t>
-  </si>
-  <si>
-    <t>ผบ392/66</t>
-  </si>
-  <si>
-    <t>กำหนดการ 7 วัน</t>
-  </si>
-  <si>
-    <t>P03-65020025</t>
-  </si>
-  <si>
-    <t>นาง หนูเพียร  จิตรหลัง</t>
-  </si>
-  <si>
-    <t>ผบ.383/2566</t>
-  </si>
-  <si>
     <t>P03-65120035</t>
   </si>
   <si>
@@ -273,6 +264,9 @@
     <t>ผบ.241/66</t>
   </si>
   <si>
+    <t>กำหนดการ 37 วัน</t>
+  </si>
+  <si>
     <t>P03-64110032</t>
   </si>
   <si>
@@ -282,6 +276,9 @@
     <t>ผบ.E4299</t>
   </si>
   <si>
+    <t>กำหนดการ 68 วัน</t>
+  </si>
+  <si>
     <t>101-64040011</t>
   </si>
   <si>
@@ -357,7 +354,7 @@
     <t>ผบ.78/2566</t>
   </si>
   <si>
-    <t>กำหนดการ 31 วัน</t>
+    <t>กำหนดการ 30 วัน</t>
   </si>
   <si>
     <t>คัดหนังสือรับรองคดีถึงที่สุด</t>
@@ -1614,273 +1611,237 @@
     <t>ประนอมที่ศาล</t>
   </si>
   <si>
+    <t>41 days</t>
+  </si>
+  <si>
+    <t>8 days</t>
+  </si>
+  <si>
+    <t>32 days</t>
+  </si>
+  <si>
+    <t>759 days</t>
+  </si>
+  <si>
+    <t>19 days</t>
+  </si>
+  <si>
+    <t>9 days</t>
+  </si>
+  <si>
+    <t>4 days</t>
+  </si>
+  <si>
+    <t>11 days</t>
+  </si>
+  <si>
+    <t>12 days</t>
+  </si>
+  <si>
+    <t>101-20160203</t>
+  </si>
+  <si>
+    <t>นาย วุฒิพงค์  เพชรดี</t>
+  </si>
+  <si>
+    <t>ลูกหนี้ก่อนฟ้อง</t>
+  </si>
+  <si>
+    <t>ประนอมที่บริษัท</t>
+  </si>
+  <si>
+    <t>5 days</t>
+  </si>
+  <si>
+    <t>P02-20160020</t>
+  </si>
+  <si>
+    <t>นางสาว สาวนุ้ย  ปานคง</t>
+  </si>
+  <si>
+    <t>P07-63010002</t>
+  </si>
+  <si>
+    <t>นาย รัชศักดิ์  ไกรทอง</t>
+  </si>
+  <si>
+    <t>775 days</t>
+  </si>
+  <si>
+    <t>P03-63010032</t>
+  </si>
+  <si>
+    <t>นาย พัชรินทร์  สุวรรณรัตน์</t>
+  </si>
+  <si>
+    <t>15 days</t>
+  </si>
+  <si>
+    <t>2559/10/3</t>
+  </si>
+  <si>
+    <t>นาย พรทวี  อุดมศรี</t>
+  </si>
+  <si>
+    <t>ลูกหนี้หลุดขายฝาก</t>
+  </si>
+  <si>
+    <t>ประนอมขายฝาก</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>P01170102/5</t>
+  </si>
+  <si>
+    <t>นาย ต้ามิ้ง  หมั่นสอาด</t>
+  </si>
+  <si>
+    <t>P01170210/4</t>
+  </si>
+  <si>
+    <t>นางสาว สุภา  พรหมศรีพัฒ</t>
+  </si>
+  <si>
+    <t>20 days</t>
+  </si>
+  <si>
+    <t>P01-19040007</t>
+  </si>
+  <si>
+    <t>นาย มนึก ซื่อตรง</t>
+  </si>
+  <si>
+    <t>P01190405/2</t>
+  </si>
+  <si>
+    <t>นางสาว อังคณา  บุญคง</t>
+  </si>
+  <si>
     <t>40 days</t>
   </si>
   <si>
-    <t>228 days</t>
-  </si>
-  <si>
-    <t>7 days</t>
-  </si>
-  <si>
-    <t>ประนอมที่บริษัท</t>
-  </si>
-  <si>
-    <t>8 days</t>
-  </si>
-  <si>
-    <t>47 days</t>
+    <t>P01190804/2</t>
+  </si>
+  <si>
+    <t>นางสาว อาภรณ์  เลี่ยมชาติ</t>
+  </si>
+  <si>
+    <t>184 days</t>
+  </si>
+  <si>
+    <t>P01-180404/2</t>
+  </si>
+  <si>
+    <t>นาง บุญเสริม  เหล่ชาย</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>101-63130027</t>
+  </si>
+  <si>
+    <t>นาย สมคิด  จำปาทอง</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>P01630106/1</t>
+  </si>
+  <si>
+    <t>นางสาว อมรรัตน์  แซ่ลิ่ม</t>
+  </si>
+  <si>
+    <t>P01190507/2</t>
+  </si>
+  <si>
+    <t>นางสาว บุญเรือน  จงทอง</t>
+  </si>
+  <si>
+    <t>6 days</t>
+  </si>
+  <si>
+    <t>P01191001/3</t>
+  </si>
+  <si>
+    <t>นางสาว สุดารัตน์  นุ่นช่วย</t>
+  </si>
+  <si>
+    <t>P01-180402/2</t>
+  </si>
+  <si>
+    <t>นางสาว จินตนา  รักษากิจ</t>
+  </si>
+  <si>
+    <t>P01180203/5</t>
+  </si>
+  <si>
+    <t>นาง ปราณี  มูลกุล</t>
+  </si>
+  <si>
+    <t>P01180105/4</t>
+  </si>
+  <si>
+    <t>นางสาว สนับ  พันธ์หญ้า</t>
+  </si>
+  <si>
+    <t>P01170211/3</t>
+  </si>
+  <si>
+    <t>นาย อบ  มีชัย</t>
+  </si>
+  <si>
+    <t>34 days</t>
+  </si>
+  <si>
+    <t>P07-64010035</t>
+  </si>
+  <si>
+    <t>นาย สุรศักดิ์  ทองทิพย์</t>
+  </si>
+  <si>
+    <t>P01190719/2</t>
+  </si>
+  <si>
+    <t>นาง จิรา  จันทร์หอม</t>
   </si>
   <si>
     <t>14 days</t>
   </si>
   <si>
-    <t>31 days</t>
-  </si>
-  <si>
-    <t>282 days</t>
-  </si>
-  <si>
-    <t>758 days</t>
+    <t>101-64190009</t>
+  </si>
+  <si>
+    <t>นาย ชำนาญ  เดชดินดอน</t>
+  </si>
+  <si>
+    <t>65 days</t>
+  </si>
+  <si>
+    <t>P07-64010033</t>
+  </si>
+  <si>
+    <t>นาย ธีรวัฒน์  หาญชนะ</t>
+  </si>
+  <si>
+    <t>P03-64030066</t>
+  </si>
+  <si>
+    <t>นาย สุนทร  ศรีระบาย</t>
+  </si>
+  <si>
+    <t>101-64010026</t>
+  </si>
+  <si>
+    <t>นาย สมพร  คล่องเเคล่ว</t>
   </si>
   <si>
     <t>23 days</t>
   </si>
   <si>
-    <t>18 days</t>
-  </si>
-  <si>
-    <t>34 days</t>
-  </si>
-  <si>
-    <t>4 days</t>
-  </si>
-  <si>
-    <t>12 days</t>
-  </si>
-  <si>
-    <t>3 days</t>
-  </si>
-  <si>
-    <t>5 days</t>
-  </si>
-  <si>
-    <t>1 days</t>
-  </si>
-  <si>
-    <t>221 days</t>
-  </si>
-  <si>
-    <t>10 days</t>
-  </si>
-  <si>
-    <t>11 days</t>
-  </si>
-  <si>
-    <t>63 days</t>
-  </si>
-  <si>
-    <t>71 days</t>
-  </si>
-  <si>
-    <t>101-20160203</t>
-  </si>
-  <si>
-    <t>นาย วุฒิพงค์  เพชรดี</t>
-  </si>
-  <si>
-    <t>ลูกหนี้ก่อนฟ้อง</t>
-  </si>
-  <si>
-    <t>P02-20160020</t>
-  </si>
-  <si>
-    <t>นางสาว สาวนุ้ย  ปานคง</t>
-  </si>
-  <si>
-    <t>P07-63010002</t>
-  </si>
-  <si>
-    <t>นาย รัชศักดิ์  ไกรทอง</t>
-  </si>
-  <si>
-    <t>774 days</t>
-  </si>
-  <si>
-    <t>P03-63010032</t>
-  </si>
-  <si>
-    <t>นาย พัชรินทร์  สุวรรณรัตน์</t>
-  </si>
-  <si>
-    <t>2559/10/3</t>
-  </si>
-  <si>
-    <t>นาย พรทวี  อุดมศรี</t>
-  </si>
-  <si>
-    <t>ลูกหนี้หลุดขายฝาก</t>
-  </si>
-  <si>
-    <t>ประนอมขายฝาก</t>
-  </si>
-  <si>
-    <t>9 days</t>
-  </si>
-  <si>
-    <t>P01170102/5</t>
-  </si>
-  <si>
-    <t>นาย ต้ามิ้ง  หมั่นสอาด</t>
-  </si>
-  <si>
-    <t>P01170210/4</t>
-  </si>
-  <si>
-    <t>นางสาว สุภา  พรหมศรีพัฒ</t>
-  </si>
-  <si>
-    <t>19 days</t>
-  </si>
-  <si>
-    <t>P01-19040007</t>
-  </si>
-  <si>
-    <t>นาย มนึก ซื่อตรง</t>
-  </si>
-  <si>
-    <t>P01190405/2</t>
-  </si>
-  <si>
-    <t>นางสาว อังคณา  บุญคง</t>
-  </si>
-  <si>
-    <t>39 days</t>
-  </si>
-  <si>
-    <t>P01190804/2</t>
-  </si>
-  <si>
-    <t>นางสาว อาภรณ์  เลี่ยมชาติ</t>
-  </si>
-  <si>
-    <t>183 days</t>
-  </si>
-  <si>
-    <t>P01-180404/2</t>
-  </si>
-  <si>
-    <t>นาง บุญเสริม  เหล่ชาย</t>
-  </si>
-  <si>
-    <t>242 days</t>
-  </si>
-  <si>
-    <t>101-63130027</t>
-  </si>
-  <si>
-    <t>นาย สมคิด  จำปาทอง</t>
-  </si>
-  <si>
-    <t>2 days</t>
-  </si>
-  <si>
-    <t>180 days</t>
-  </si>
-  <si>
-    <t>21 days</t>
-  </si>
-  <si>
-    <t>P01630106/1</t>
-  </si>
-  <si>
-    <t>นางสาว อมรรัตน์  แซ่ลิ่ม</t>
-  </si>
-  <si>
-    <t>P01190507/2</t>
-  </si>
-  <si>
-    <t>นางสาว บุญเรือน  จงทอง</t>
-  </si>
-  <si>
-    <t>P01191001/3</t>
-  </si>
-  <si>
-    <t>นางสาว สุดารัตน์  นุ่นช่วย</t>
-  </si>
-  <si>
-    <t>P01-180402/2</t>
-  </si>
-  <si>
-    <t>นางสาว จินตนา  รักษากิจ</t>
-  </si>
-  <si>
-    <t>P01180203/5</t>
-  </si>
-  <si>
-    <t>นาง ปราณี  มูลกุล</t>
-  </si>
-  <si>
-    <t>P01180105/4</t>
-  </si>
-  <si>
-    <t>นางสาว สนับ  พันธ์หญ้า</t>
-  </si>
-  <si>
-    <t>P01170211/3</t>
-  </si>
-  <si>
-    <t>นาย อบ  มีชัย</t>
-  </si>
-  <si>
-    <t>33 days</t>
-  </si>
-  <si>
-    <t>P07-64010035</t>
-  </si>
-  <si>
-    <t>นาย สุรศักดิ์  ทองทิพย์</t>
-  </si>
-  <si>
-    <t>13 days</t>
-  </si>
-  <si>
-    <t>P01190719/2</t>
-  </si>
-  <si>
-    <t>นาง จิรา  จันทร์หอม</t>
-  </si>
-  <si>
-    <t>101-64190009</t>
-  </si>
-  <si>
-    <t>นาย ชำนาญ  เดชดินดอน</t>
-  </si>
-  <si>
-    <t>64 days</t>
-  </si>
-  <si>
-    <t>P07-64010033</t>
-  </si>
-  <si>
-    <t>นาย ธีรวัฒน์  หาญชนะ</t>
-  </si>
-  <si>
-    <t>P03-64030066</t>
-  </si>
-  <si>
-    <t>นาย สุนทร  ศรีระบาย</t>
-  </si>
-  <si>
-    <t>101-64010026</t>
-  </si>
-  <si>
-    <t>นาย สมพร  คล่องเเคล่ว</t>
-  </si>
-  <si>
-    <t>22 days</t>
-  </si>
-  <si>
     <t>101-64090012</t>
   </si>
   <si>
@@ -1917,22 +1878,13 @@
     <t>ยอดจ่ายเงินก้นแรก</t>
   </si>
   <si>
-    <t>851 days</t>
-  </si>
-  <si>
-    <t>368 days</t>
-  </si>
-  <si>
-    <t>376 days</t>
-  </si>
-  <si>
     <t>P01180104/2</t>
   </si>
   <si>
     <t>นาย ฮาเก็ม  ดำรงค์ศักดิ์</t>
   </si>
   <si>
-    <t>1478 days</t>
+    <t>1479 days</t>
   </si>
   <si>
     <t>P01180314/3</t>
@@ -1941,16 +1893,7 @@
     <t>นาย สังวร  คงบำเรอ</t>
   </si>
   <si>
-    <t>312 days</t>
-  </si>
-  <si>
-    <t>310 days</t>
-  </si>
-  <si>
-    <t>181 days</t>
-  </si>
-  <si>
-    <t>38 days</t>
+    <t>313 days</t>
   </si>
 </sst>
 </file>
@@ -2339,10 +2282,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K169"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K169" sqref="K169"/>
+      <selection activeCell="K168" sqref="K168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2890,41 +2833,41 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="5">
-        <v>45252.708333333</v>
+        <v>45274.708333333</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="3" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="B34" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="5">
-        <v>45274.708333333</v>
+        <v>45305.708333333</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="3" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="5">
@@ -2932,22 +2875,22 @@
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="3" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="B36" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="5">
-        <v>45305.708333333</v>
+        <v>45337.708333333</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="3" t="s">
@@ -2956,17 +2899,17 @@
     </row>
     <row r="37" spans="1:11">
       <c r="B37" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="5">
-        <v>45337.708333333</v>
+        <v>45341.708333333</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="3" t="s">
@@ -2975,17 +2918,17 @@
     </row>
     <row r="38" spans="1:11">
       <c r="B38" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="5">
-        <v>45341.708333333</v>
+        <v>45343.708333333</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="3" t="s">
@@ -2994,17 +2937,17 @@
     </row>
     <row r="39" spans="1:11">
       <c r="B39" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="5">
-        <v>45343.708333333</v>
+        <v>45368.708333333</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="3" t="s">
@@ -3012,242 +2955,240 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="B40" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="A40" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="5">
-        <v>45368.708333333</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" t="s">
+      <c r="B41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="G41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="B42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>8</v>
+      <c r="C42" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="5">
+        <v>45225.708333333</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="B43" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="5">
-        <v>45225.708333333</v>
+        <v>45267.708333333</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="B44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="5">
-        <v>45267.708333333</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="3" t="s">
+      <c r="A44" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" t="s">
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="G45" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="5">
+        <v>45312.708333333</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" s="2" t="s">
+      <c r="F48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="B47" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="5">
-        <v>45312.708333333</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>120</v>
-      </c>
-    </row>
     <row r="49" spans="1:11">
-      <c r="B49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="5">
+        <v>45126.708333333</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:11">
       <c r="B50" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="5">
-        <v>45126.708333333</v>
+        <v>45153.708333333</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:11">
       <c r="B51" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="5">
-        <v>45153.708333333</v>
+        <v>45147.708333333</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:11">
       <c r="B52" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="5">
-        <v>45147.708333333</v>
+        <v>45120.708333333</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:11">
       <c r="B53" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="5">
-        <v>45120.708333333</v>
+        <v>45147.708333333</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:11">
       <c r="B54" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="5">
@@ -3258,821 +3199,823 @@
     </row>
     <row r="55" spans="1:11">
       <c r="B55" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="5">
-        <v>45147.708333333</v>
+        <v>45179.708333333</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:11">
       <c r="B56" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="5">
         <v>45179.708333333</v>
       </c>
-      <c r="G56" s="5"/>
+      <c r="G56" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:11">
       <c r="B57" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" s="5">
+        <v>45147.708333333</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="5">
-        <v>45179.708333333</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:11">
       <c r="B58" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E58" s="3"/>
       <c r="F58" s="5">
         <v>45147.708333333</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:11">
       <c r="B59" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E59" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F59" s="5">
         <v>45147.708333333</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:11">
       <c r="B60" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>158</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E60" s="3"/>
       <c r="F60" s="5">
-        <v>45147.708333333</v>
+        <v>45179.708333333</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:11">
       <c r="B61" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E61" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="F61" s="5">
-        <v>45179.708333333</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>45209.708333333</v>
+      </c>
+      <c r="G61" s="5"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:11">
       <c r="B62" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>165</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E62" s="3"/>
       <c r="F62" s="5">
-        <v>45209.708333333</v>
+        <v>45090.708333333</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:11">
       <c r="B63" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="5">
-        <v>45090.708333333</v>
-      </c>
-      <c r="G63" s="5"/>
+        <v>45209.708333333</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:11">
       <c r="B64" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E64" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="F64" s="5">
-        <v>45209.708333333</v>
+        <v>45147.708333333</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:11">
       <c r="B65" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F65" s="5">
         <v>45147.708333333</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:11">
       <c r="B66" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="5">
         <v>45147.708333333</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:11">
       <c r="B67" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="5">
         <v>45147.708333333</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:11">
       <c r="B68" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E68" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="F68" s="5">
-        <v>45147.708333333</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>45126.708333333</v>
+      </c>
+      <c r="G68" s="5"/>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:11">
       <c r="B69" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F69" s="5">
-        <v>45126.708333333</v>
-      </c>
-      <c r="G69" s="5"/>
+        <v>45147.708333333</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:11">
       <c r="B70" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>193</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E70" s="3"/>
       <c r="F70" s="5">
-        <v>45147.708333333</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>45120.708333333</v>
+      </c>
+      <c r="G70" s="5"/>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:11">
       <c r="B71" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E71" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="F71" s="5">
-        <v>45120.708333333</v>
-      </c>
-      <c r="G71" s="5"/>
+        <v>45147.708333333</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:11">
       <c r="B72" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>200</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E72" s="3"/>
       <c r="F72" s="5">
-        <v>45147.708333333</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>45054.708333333</v>
+      </c>
+      <c r="G72" s="5"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:11">
       <c r="B73" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="5">
-        <v>45054.708333333</v>
-      </c>
-      <c r="G73" s="5"/>
+        <v>45147.708333333</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:11">
       <c r="B74" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="5">
-        <v>45147.708333333</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>45053.708333333</v>
+      </c>
+      <c r="G74" s="5"/>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:11">
       <c r="B75" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="5">
-        <v>45053.708333333</v>
+        <v>45120.708333333</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:11">
       <c r="B76" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="5">
-        <v>45120.708333333</v>
+        <v>45209.708333333</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:11">
       <c r="B77" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="5">
-        <v>45209.708333333</v>
+        <v>45148.708333333</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="1:11">
       <c r="B78" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="5">
-        <v>45148.708333333</v>
+        <v>45085.708333333</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:11">
       <c r="B79" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="5">
-        <v>45085.708333333</v>
-      </c>
-      <c r="G79" s="5"/>
+        <v>45147.708333333</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:11">
       <c r="B80" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E80" s="3"/>
+        <v>226</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="F80" s="5">
-        <v>45147.708333333</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>45054.708333333</v>
+      </c>
+      <c r="G80" s="5"/>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:11">
       <c r="B81" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>228</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E81" s="3"/>
       <c r="F81" s="5">
-        <v>45054.708333333</v>
-      </c>
-      <c r="G81" s="5"/>
+        <v>45179.708333333</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:11">
       <c r="B82" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="5">
-        <v>45179.708333333</v>
+        <v>45120.708333333</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:11">
       <c r="B83" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>234</v>
-      </c>
+      <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="5">
         <v>45120.708333333</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:11">
       <c r="B84" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+        <v>235</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="F84" s="5">
-        <v>45120.708333333</v>
+        <v>45147.708333333</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:11">
       <c r="B85" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F85" s="5">
-        <v>45147.708333333</v>
+        <v>45179.708333333</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:11">
       <c r="B86" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F86" s="5">
-        <v>45179.708333333</v>
+        <v>45147.708333333</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:11">
       <c r="B87" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F87" s="5">
         <v>45147.708333333</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H87" s="3"/>
     </row>
     <row r="88" spans="1:11">
       <c r="B88" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F88" s="5">
         <v>45147.708333333</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:11">
       <c r="B89" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F89" s="5">
-        <v>45147.708333333</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>45148.708333333</v>
+      </c>
+      <c r="G89" s="5"/>
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="1:11">
       <c r="B90" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F90" s="5">
-        <v>45148.708333333</v>
-      </c>
-      <c r="G90" s="5"/>
+        <v>45126.708333333</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H90" s="3"/>
     </row>
     <row r="91" spans="1:11">
       <c r="B91" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F91" s="5">
-        <v>45126.708333333</v>
+        <v>45147.708333333</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:11">
       <c r="B92" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F92" s="5">
         <v>45147.708333333</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:11">
       <c r="B93" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F93" s="5">
-        <v>45147.708333333</v>
+        <v>45126.708333333</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:11">
       <c r="B94" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>272</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="E94" s="3"/>
       <c r="F94" s="5">
-        <v>45126.708333333</v>
+        <v>45085.708333333</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:11">
       <c r="B95" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="5">
-        <v>45085.708333333</v>
+        <v>45147.708333333</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:11">
       <c r="B96" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G96" s="5" t="s">
-        <v>147</v>
-      </c>
+      <c r="G96" s="5"/>
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:11">
       <c r="B97" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E97" s="3"/>
+        <v>283</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="F97" s="5">
         <v>45147.708333333</v>
       </c>
@@ -4081,384 +4024,384 @@
     </row>
     <row r="98" spans="1:11">
       <c r="B98" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F98" s="5">
-        <v>45147.708333333</v>
+        <v>45120.708333333</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:11">
       <c r="B99" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F99" s="5">
-        <v>45120.708333333</v>
-      </c>
-      <c r="G99" s="5"/>
+        <v>45156.708333333</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H99" s="3"/>
     </row>
     <row r="100" spans="1:11">
       <c r="B100" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F100" s="5">
-        <v>45156.708333333</v>
+        <v>45179.708333333</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H100" s="3"/>
     </row>
     <row r="101" spans="1:11">
       <c r="B101" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F101" s="5">
-        <v>45179.708333333</v>
+        <v>45147.708333333</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H101" s="3"/>
     </row>
     <row r="102" spans="1:11">
       <c r="B102" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F102" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G102" s="5" t="s">
-        <v>147</v>
-      </c>
+      <c r="G102" s="5"/>
       <c r="H102" s="3"/>
     </row>
     <row r="103" spans="1:11">
       <c r="B103" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F103" s="5">
         <v>45147.708333333</v>
       </c>
-      <c r="G103" s="5"/>
+      <c r="G103" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:11">
       <c r="B104" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>309</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E104" s="3"/>
       <c r="F104" s="5">
-        <v>45147.708333333</v>
+        <v>45126.708333333</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:11">
       <c r="B105" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E105" s="3"/>
+        <v>314</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>315</v>
+      </c>
       <c r="F105" s="5">
-        <v>45126.708333333</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>45148.708333333</v>
+      </c>
+      <c r="G105" s="5"/>
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:11">
       <c r="B106" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>316</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="E106" s="3"/>
       <c r="F106" s="5">
-        <v>45148.708333333</v>
-      </c>
-      <c r="G106" s="5"/>
+        <v>45126.708333333</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:11">
       <c r="B107" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="5">
-        <v>45126.708333333</v>
+        <v>45148.708333333</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:11">
       <c r="B108" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="5">
-        <v>45148.708333333</v>
+        <v>45085.708333333</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:11">
       <c r="B109" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="5">
-        <v>45085.708333333</v>
+        <v>45126.708333333</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H109" s="3"/>
     </row>
     <row r="110" spans="1:11">
       <c r="B110" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="5">
-        <v>45126.708333333</v>
+        <v>45120.708333333</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H110" s="3"/>
     </row>
     <row r="111" spans="1:11">
       <c r="B111" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="5">
-        <v>45120.708333333</v>
+        <v>45209.708333333</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H111" s="3"/>
     </row>
     <row r="112" spans="1:11">
       <c r="B112" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="5">
-        <v>45209.708333333</v>
+        <v>45148.708333333</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H112" s="3"/>
     </row>
     <row r="113" spans="1:11">
       <c r="B113" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="5">
-        <v>45148.708333333</v>
+        <v>45120.708333333</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:11">
       <c r="B114" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="5">
         <v>45120.708333333</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:11">
       <c r="B115" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="5">
-        <v>45120.708333333</v>
+        <v>45085.708333333</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:11">
       <c r="B116" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="5">
-        <v>45085.708333333</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>45179.708333333</v>
+      </c>
+      <c r="G116" s="5"/>
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:11">
       <c r="B117" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E117" s="3"/>
+        <v>351</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>352</v>
+      </c>
       <c r="F117" s="5">
         <v>45179.708333333</v>
       </c>
@@ -4467,70 +4410,68 @@
     </row>
     <row r="118" spans="1:11">
       <c r="B118" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>353</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="E118" s="3"/>
       <c r="F118" s="5">
-        <v>45179.708333333</v>
-      </c>
-      <c r="G118" s="5"/>
+        <v>45120.708333333</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:11">
       <c r="B119" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="5">
         <v>45120.708333333</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:11">
       <c r="B120" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="5">
-        <v>45120.708333333</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>45179.708333333</v>
+      </c>
+      <c r="G120" s="5"/>
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:11">
       <c r="B121" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="5">
@@ -4541,66 +4482,66 @@
     </row>
     <row r="122" spans="1:11">
       <c r="B122" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="5">
-        <v>45179.708333333</v>
-      </c>
-      <c r="G122" s="5"/>
+        <v>45120.708333333</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H122" s="3"/>
     </row>
     <row r="123" spans="1:11">
       <c r="B123" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="5">
-        <v>45120.708333333</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>45210.708333333</v>
+      </c>
+      <c r="G123" s="5"/>
       <c r="H123" s="3"/>
     </row>
     <row r="124" spans="1:11">
       <c r="B124" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="5">
-        <v>45210.708333333</v>
+        <v>45179.708333333</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="3"/>
     </row>
     <row r="125" spans="1:11">
       <c r="B125" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="5">
@@ -4611,13 +4552,13 @@
     </row>
     <row r="126" spans="1:11">
       <c r="B126" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="5">
@@ -4628,13 +4569,13 @@
     </row>
     <row r="127" spans="1:11">
       <c r="B127" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="5">
@@ -4645,13 +4586,13 @@
     </row>
     <row r="128" spans="1:11">
       <c r="B128" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="5">
@@ -4662,13 +4603,13 @@
     </row>
     <row r="129" spans="1:11">
       <c r="B129" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="5">
@@ -4679,13 +4620,13 @@
     </row>
     <row r="130" spans="1:11">
       <c r="B130" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="5">
@@ -4696,30 +4637,30 @@
     </row>
     <row r="131" spans="1:11">
       <c r="B131" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="5">
-        <v>45179.708333333</v>
+        <v>45210.708333333</v>
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:11">
       <c r="B132" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="5">
@@ -4729,144 +4670,150 @@
       <c r="H132" s="3"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="B133" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D133" s="3" t="s">
+      <c r="A133" t="s">
         <v>398</v>
       </c>
-      <c r="E133" s="3"/>
-      <c r="F133" s="5">
-        <v>45210.708333333</v>
-      </c>
-      <c r="G133" s="5"/>
-      <c r="H133" s="3"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" t="s">
+      <c r="B134" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" s="4" t="s">
         <v>399</v>
       </c>
+      <c r="G134" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="B135" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="H135" s="2" t="s">
-        <v>8</v>
+      <c r="C135" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E135" s="3"/>
+      <c r="F135" s="5">
+        <v>25598.708333333</v>
+      </c>
+      <c r="G135" s="5"/>
+      <c r="H135" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="B136" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="5">
         <v>25598.708333333</v>
       </c>
-      <c r="G136" s="5"/>
+      <c r="G136" s="5">
+        <v>45075.708333333</v>
+      </c>
       <c r="H136" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="B137" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="5">
-        <v>25598.708333333</v>
+        <v>45113.708333333</v>
       </c>
       <c r="G137" s="5">
         <v>45075.708333333</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="B138" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E138" s="3"/>
+        <v>412</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>413</v>
+      </c>
       <c r="F138" s="5">
-        <v>45113.708333333</v>
-      </c>
-      <c r="G138" s="5">
-        <v>45075.708333333</v>
-      </c>
+        <v>25598.708333333</v>
+      </c>
+      <c r="G138" s="5"/>
       <c r="H138" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="B139" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F139" s="5">
         <v>25598.708333333</v>
       </c>
-      <c r="G139" s="5"/>
+      <c r="G139" s="5">
+        <v>45046.708333333</v>
+      </c>
       <c r="H139" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="B140" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F140" s="5">
         <v>25598.708333333</v>
@@ -4875,439 +4822,442 @@
         <v>45046.708333333</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="B141" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F141" s="5">
-        <v>25598.708333333</v>
+        <v>45146.708333333</v>
       </c>
       <c r="G141" s="5">
-        <v>45046.708333333</v>
+        <v>45116.708333333</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="B142" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>426</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="E142" s="3"/>
       <c r="F142" s="5">
-        <v>45146.708333333</v>
+        <v>25598.708333333</v>
       </c>
       <c r="G142" s="5">
-        <v>45116.708333333</v>
+        <v>45073.708333333</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="B143" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="5">
         <v>25598.708333333</v>
       </c>
       <c r="G143" s="5">
-        <v>45073.708333333</v>
+        <v>45096.708333333</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="B144" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="5">
         <v>25598.708333333</v>
       </c>
-      <c r="G144" s="5">
-        <v>45096.708333333</v>
-      </c>
+      <c r="G144" s="5"/>
       <c r="H144" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="B145" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D145" s="3" t="s">
+      <c r="A145" t="s">
         <v>435</v>
       </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="5">
-        <v>25598.708333333</v>
-      </c>
-      <c r="G145" s="5"/>
-      <c r="H145" s="3" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" t="s">
+      <c r="B146" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F146" s="4" t="s">
         <v>436</v>
       </c>
+      <c r="G146" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="B147" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="H147" s="2" t="s">
-        <v>8</v>
+      <c r="C147" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E147" s="3"/>
+      <c r="F147" s="5">
+        <v>45141.708333333</v>
+      </c>
+      <c r="G147" s="5">
+        <v>45168.708333333</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="B148" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="5">
         <v>45141.708333333</v>
       </c>
       <c r="G148" s="5">
-        <v>45168.708333333</v>
+        <v>45137.708333333</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="B149" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="5">
-        <v>45141.708333333</v>
+        <v>45144.708333333</v>
       </c>
       <c r="G149" s="5">
-        <v>45137.708333333</v>
+        <v>45168.708333333</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="B150" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="5">
         <v>45144.708333333</v>
       </c>
       <c r="G150" s="5">
-        <v>45168.708333333</v>
+        <v>45187.708333333</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="B151" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="5">
         <v>45144.708333333</v>
       </c>
       <c r="G151" s="5">
-        <v>45187.708333333</v>
+        <v>45144.708333333</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="B152" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E152" s="3"/>
+        <v>455</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>456</v>
+      </c>
       <c r="F152" s="5">
-        <v>45144.708333333</v>
+        <v>45148.708333333</v>
       </c>
       <c r="G152" s="5">
-        <v>45144.708333333</v>
+        <v>45168.708333333</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="B153" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F153" s="5">
         <v>45148.708333333</v>
       </c>
-      <c r="G153" s="5">
-        <v>45168.708333333</v>
-      </c>
+      <c r="G153" s="5"/>
       <c r="H153" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="B154" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F154" s="5">
-        <v>45148.708333333</v>
-      </c>
-      <c r="G154" s="5"/>
+        <v>45149.708333333</v>
+      </c>
+      <c r="G154" s="5">
+        <v>45137.708333333</v>
+      </c>
       <c r="H154" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="B155" s="3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F155" s="5">
-        <v>45149.708333333</v>
+        <v>25613.708333333</v>
       </c>
       <c r="G155" s="5">
-        <v>45137.708333333</v>
+        <v>45168.708333333</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156" spans="1:11">
       <c r="B156" s="3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F156" s="5">
-        <v>25613.708333333</v>
+        <v>45152.708333333</v>
       </c>
       <c r="G156" s="5">
         <v>45168.708333333</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="B157" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>473</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="E157" s="3"/>
       <c r="F157" s="5">
-        <v>45152.708333333</v>
-      </c>
-      <c r="G157" s="5">
-        <v>45168.708333333</v>
-      </c>
+        <v>45155.708333333</v>
+      </c>
+      <c r="G157" s="5"/>
       <c r="H157" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="B158" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D158" s="3" t="s">
+      <c r="A158" t="s">
         <v>476</v>
       </c>
-      <c r="E158" s="3"/>
-      <c r="F158" s="5">
-        <v>45155.708333333</v>
-      </c>
-      <c r="G158" s="5"/>
-      <c r="H158" s="3" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" t="s">
+      <c r="B159" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" s="4" t="s">
         <v>477</v>
       </c>
+      <c r="G159" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F160" s="5">
+        <v>45161.708333333</v>
+      </c>
+      <c r="G160" s="5">
+        <v>45243.708333333</v>
+      </c>
+      <c r="H160" s="3">
         <v>2</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K160" s="2" t="s">
-        <v>483</v>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:11">
       <c r="B161" s="3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="F161" s="5">
-        <v>45161.708333333</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="F161" s="5"/>
       <c r="G161" s="5">
-        <v>45243.708333333</v>
+        <v>45257.708333333</v>
       </c>
       <c r="H161" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
@@ -5317,23 +5267,23 @@
     </row>
     <row r="162" spans="1:11">
       <c r="B162" s="3" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5">
         <v>45257.708333333</v>
       </c>
       <c r="H162" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
@@ -5343,20 +5293,20 @@
     </row>
     <row r="163" spans="1:11">
       <c r="B163" s="3" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5">
-        <v>45257.708333333</v>
+        <v>44956.708333333</v>
       </c>
       <c r="H163" s="3">
         <v>2</v>
@@ -5369,20 +5319,22 @@
     </row>
     <row r="164" spans="1:11">
       <c r="B164" s="3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="F164" s="5"/>
+        <v>502</v>
+      </c>
+      <c r="F164" s="5">
+        <v>45167.708333333</v>
+      </c>
       <c r="G164" s="5">
-        <v>44956.708333333</v>
+        <v>45194.708333333</v>
       </c>
       <c r="H164" s="3">
         <v>2</v>
@@ -5395,22 +5347,22 @@
     </row>
     <row r="165" spans="1:11">
       <c r="B165" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F165" s="5">
-        <v>45167.708333333</v>
+        <v>45179.708333333</v>
       </c>
       <c r="G165" s="5">
-        <v>45194.708333333</v>
+        <v>45163.708333333</v>
       </c>
       <c r="H165" s="3">
         <v>2</v>
@@ -5423,22 +5375,22 @@
     </row>
     <row r="166" spans="1:11">
       <c r="B166" s="3" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F166" s="5">
-        <v>45179.708333333</v>
+        <v>45170.708333333</v>
       </c>
       <c r="G166" s="5">
-        <v>45163.708333333</v>
+        <v>45012.708333333</v>
       </c>
       <c r="H166" s="3">
         <v>2</v>
@@ -5451,25 +5403,25 @@
     </row>
     <row r="167" spans="1:11">
       <c r="B167" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F167" s="5">
-        <v>45170.708333333</v>
+        <v>44902.708333333</v>
       </c>
       <c r="G167" s="5">
-        <v>45012.708333333</v>
+        <v>44487.708333333</v>
       </c>
       <c r="H167" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -5479,22 +5431,20 @@
     </row>
     <row r="168" spans="1:11">
       <c r="B168" s="3" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="F168" s="5">
-        <v>44902.708333333</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="F168" s="5"/>
       <c r="G168" s="5">
-        <v>44487.708333333</v>
+        <v>44872.708333333</v>
       </c>
       <c r="H168" s="3">
         <v>1</v>
@@ -5502,32 +5452,6 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="B169" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5">
-        <v>44872.708333333</v>
-      </c>
-      <c r="H169" s="3">
-        <v>1</v>
-      </c>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5555,10 +5479,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L90" sqref="L90"/>
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5568,12 +5492,12 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5584,45 +5508,45 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="F5" s="5">
         <v>45196.708333333</v>
@@ -5637,7 +5561,7 @@
         <v>4850</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K5" s="3">
         <v>55950</v>
@@ -5648,719 +5572,719 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>531</v>
-      </c>
       <c r="F6" s="5">
-        <v>45008.708333333</v>
+        <v>45229.708333333</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>540</v>
+        <v>3000</v>
       </c>
       <c r="I6" s="3">
-        <v>1080</v>
+        <v>1500</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K6" s="3">
-        <v>6961</v>
+        <v>48500</v>
       </c>
       <c r="L6" s="3">
-        <v>9449</v>
+        <v>73324</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="3" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>531</v>
-      </c>
       <c r="F7" s="5">
-        <v>45229.708333333</v>
+        <v>45205.708333333</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="I7" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K7" s="3">
-        <v>48500</v>
+        <v>38303</v>
       </c>
       <c r="L7" s="3">
-        <v>73324</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>531</v>
-      </c>
       <c r="F8" s="5">
-        <v>45229.708333333</v>
+        <v>44478.708333333</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>1490</v>
+        <v>2000</v>
       </c>
       <c r="I8" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>534</v>
       </c>
       <c r="K8" s="3">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L8" s="3">
-        <v>18315</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="3" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>535</v>
-      </c>
       <c r="F9" s="5">
-        <v>45228.708333333</v>
+        <v>45218.708333333</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="I9" s="3">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K9" s="3">
-        <v>58800</v>
+        <v>124461</v>
       </c>
       <c r="L9" s="3">
-        <v>321200</v>
+        <v>151006</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="3" t="s">
-        <v>186</v>
+        <v>487</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>187</v>
+        <v>488</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>531</v>
-      </c>
       <c r="F10" s="5">
-        <v>45189.708333333</v>
+        <v>45228.708333333</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="I10" s="3">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K10" s="3">
-        <v>3500</v>
+        <v>146500</v>
       </c>
       <c r="L10" s="3">
-        <v>159540</v>
+        <v>323500</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="3" t="s">
-        <v>194</v>
+        <v>491</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>195</v>
+        <v>492</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>531</v>
-      </c>
       <c r="F11" s="5">
-        <v>45222.708333333</v>
+        <v>45233.708333333</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="I11" s="3">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K11" s="3">
-        <v>110224</v>
+        <v>94000</v>
       </c>
       <c r="L11" s="3">
-        <v>263727</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="3" t="s">
-        <v>201</v>
+        <v>414</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>202</v>
+        <v>415</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>531</v>
-      </c>
       <c r="F12" s="5">
-        <v>45205.708333333</v>
+        <v>45229.708333333</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I12" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="K12" s="3">
-        <v>38303</v>
+        <v>99500</v>
       </c>
       <c r="L12" s="3">
-        <v>44734</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="3" t="s">
-        <v>445</v>
+        <v>285</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>446</v>
+        <v>286</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>531</v>
-      </c>
       <c r="F13" s="5">
-        <v>44954.708333333</v>
+        <v>45226.708333333</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="I13" s="3">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K13" s="3">
-        <v>3000</v>
+        <v>150000</v>
       </c>
       <c r="L13" s="3">
-        <v>199183</v>
+        <v>32093</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="3" t="s">
-        <v>207</v>
+        <v>499</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>208</v>
+        <v>500</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>531</v>
-      </c>
       <c r="F14" s="5">
-        <v>44478.708333333</v>
+        <v>45225.708333333</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I14" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K14" s="3">
-        <v>4000</v>
+        <v>79091</v>
       </c>
       <c r="L14" s="3">
-        <v>2491</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="3" t="s">
-        <v>405</v>
+        <v>540</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>406</v>
+        <v>541</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="F15" s="5">
-        <v>45213.708333333</v>
+        <v>45232.708333333</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>2700</v>
+        <v>2917</v>
       </c>
       <c r="I15" s="3">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K15" s="3">
-        <v>76311</v>
+        <v>33834</v>
       </c>
       <c r="L15" s="3">
-        <v>119807</v>
+        <v>36166</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="3" t="s">
-        <v>210</v>
+        <v>545</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>211</v>
+        <v>546</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="F16" s="5">
-        <v>45218.708333333</v>
+        <v>45225.708333333</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>5000</v>
+        <v>550</v>
       </c>
       <c r="I16" s="3">
-        <v>5000</v>
+        <v>550</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K16" s="3">
-        <v>124461</v>
+        <v>7595</v>
       </c>
       <c r="L16" s="3">
-        <v>151006</v>
+        <v>8890</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="3" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="F17" s="5">
-        <v>45202.708333333</v>
+        <v>44462.708333333</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>4021</v>
+        <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>4021</v>
+        <v>500</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="K17" s="3">
-        <v>109544</v>
+        <v>2500</v>
       </c>
       <c r="L17" s="3">
-        <v>212120</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="3" t="s">
-        <v>408</v>
+        <v>550</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>409</v>
+        <v>551</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="F18" s="5">
-        <v>45232.708333333</v>
+        <v>45222.708333333</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="I18" s="3">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K18" s="3">
-        <v>67722</v>
+        <v>80000</v>
       </c>
       <c r="L18" s="3">
-        <v>69504</v>
+        <v>36953</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="3" t="s">
-        <v>216</v>
+        <v>553</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>217</v>
+        <v>554</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F19" s="5">
-        <v>45232.708333333</v>
+        <v>45227.708333333</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="I19" s="3">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="K19" s="3">
-        <v>100000</v>
+        <v>44000</v>
       </c>
       <c r="L19" s="3">
-        <v>36294</v>
+        <v>196000</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="3" t="s">
-        <v>411</v>
+        <v>558</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>412</v>
+        <v>559</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F20" s="5">
-        <v>45228.708333333</v>
+        <v>45229.708333333</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>4000</v>
+        <v>5120</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K20" s="3">
-        <v>122000</v>
+        <v>51200</v>
       </c>
       <c r="L20" s="3">
-        <v>38136</v>
+        <v>440320</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="3" t="s">
-        <v>488</v>
+        <v>560</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F21" s="5">
-        <v>45228.708333333</v>
+        <v>45217.708333333</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>5000</v>
+        <v>850</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="K21" s="3">
-        <v>146500</v>
+        <v>5950</v>
       </c>
       <c r="L21" s="3">
-        <v>323500</v>
+        <v>54880</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" s="3" t="s">
-        <v>219</v>
+        <v>563</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>220</v>
+        <v>564</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F22" s="5">
-        <v>45224.708333333</v>
+        <v>45233.708333333</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>3820</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>3820</v>
+        <v>6480</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="K22" s="3">
-        <v>91387</v>
+        <v>82960</v>
       </c>
       <c r="L22" s="3">
-        <v>10290</v>
+        <v>142560</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="B23" s="3" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F23" s="5">
-        <v>45233.708333333</v>
+        <v>45197.708333333</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>4000</v>
+        <v>5190</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="K23" s="3">
-        <v>94000</v>
+        <v>28990</v>
       </c>
       <c r="L23" s="3">
-        <v>132000</v>
+        <v>406310</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="B24" s="3" t="s">
-        <v>454</v>
+        <v>568</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>455</v>
+        <v>569</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F24" s="5">
-        <v>45228.708333333</v>
+        <v>45053.708333333</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="K24" s="3">
-        <v>26000</v>
+        <v>7020</v>
       </c>
       <c r="L24" s="3">
-        <v>173800</v>
+        <v>413820</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="B25" s="3" t="s">
-        <v>225</v>
+        <v>571</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>226</v>
+        <v>572</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F25" s="5">
-        <v>45231.708333333</v>
+        <v>45235.708333333</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I25" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="K25" s="3">
-        <v>93000</v>
+        <v>18200</v>
       </c>
       <c r="L25" s="3">
-        <v>201792</v>
+        <v>158920</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="B26" s="3" t="s">
-        <v>415</v>
+        <v>574</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>416</v>
+        <v>575</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="F26" s="5">
-        <v>45229.708333333</v>
+        <v>45234.708333333</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -6372,97 +6296,97 @@
         <v>3000</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="K26" s="3">
-        <v>99500</v>
+        <v>73966</v>
       </c>
       <c r="L26" s="3">
-        <v>26500</v>
+        <v>210314</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="B27" s="3" t="s">
-        <v>419</v>
+        <v>577</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>420</v>
+        <v>578</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F27" s="5">
-        <v>45235.708333333</v>
+        <v>45232.708333333</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>2000</v>
+        <v>3570</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="K27" s="3">
-        <v>81500</v>
+        <v>24990</v>
       </c>
       <c r="L27" s="3">
-        <v>161718</v>
+        <v>274570</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="B28" s="3" t="s">
-        <v>255</v>
+        <v>579</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>256</v>
+        <v>580</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F28" s="5">
-        <v>45232.708333333</v>
+        <v>45231.708333333</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
       </c>
       <c r="H28" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="K28" s="3">
-        <v>45000</v>
+        <v>11360</v>
       </c>
       <c r="L28" s="3">
-        <v>43180</v>
+        <v>238120</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="B29" s="3" t="s">
-        <v>279</v>
+        <v>582</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>280</v>
+        <v>583</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F29" s="5">
         <v>45232.708333333</v>
@@ -6471,1967 +6395,737 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>4770</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>4770</v>
+        <v>2000</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K29" s="3">
-        <v>66780</v>
+        <v>6000</v>
       </c>
       <c r="L29" s="3">
-        <v>137511</v>
+        <v>367680</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="3" t="s">
-        <v>282</v>
+        <v>584</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>283</v>
+        <v>585</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F30" s="5">
-        <v>45015.708333333</v>
+        <v>45234.708333333</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="K30" s="3">
-        <v>3000</v>
+        <v>18800</v>
       </c>
       <c r="L30" s="3">
-        <v>25166</v>
+        <v>158320</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="B31" s="3" t="s">
-        <v>423</v>
+        <v>586</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>424</v>
+        <v>587</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F31" s="5">
-        <v>45233.708333333</v>
+        <v>45235.708333333</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <v>3040</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>3040</v>
+        <v>4950</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="K31" s="3">
-        <v>54720</v>
+        <v>34650</v>
       </c>
       <c r="L31" s="3">
-        <v>91200</v>
+        <v>440550</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="B32" s="3" t="s">
-        <v>427</v>
+        <v>588</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>428</v>
+        <v>589</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F32" s="5">
-        <v>45196.708333333</v>
+        <v>45232.708333333</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>3580</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>3580</v>
+        <v>2550</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="K32" s="3">
-        <v>57220</v>
+        <v>28000</v>
       </c>
       <c r="L32" s="3">
-        <v>178948</v>
+        <v>94400</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="B33" s="3" t="s">
-        <v>286</v>
+        <v>590</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>287</v>
+        <v>591</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F33" s="5">
-        <v>45226.708333333</v>
+        <v>45203.708333333</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>4000</v>
+        <v>6300</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>551</v>
+        <v>592</v>
       </c>
       <c r="K33" s="3">
-        <v>150000</v>
+        <v>56700</v>
       </c>
       <c r="L33" s="3">
-        <v>32093</v>
+        <v>699300</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="B34" s="3" t="s">
-        <v>500</v>
+        <v>593</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>501</v>
+        <v>594</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="F34" s="5">
-        <v>45225.708333333</v>
+        <v>45229.708333333</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>2500</v>
+        <v>490</v>
       </c>
       <c r="I34" s="3">
-        <v>3000</v>
+        <v>490</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="K34" s="3">
-        <v>79091</v>
+        <v>3920</v>
       </c>
       <c r="L34" s="3">
-        <v>20000</v>
+        <v>13507</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="B35" s="3" t="s">
-        <v>504</v>
+        <v>595</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>505</v>
+        <v>596</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="F35" s="5">
-        <v>45173.708333333</v>
+        <v>45223.708333333</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>3000</v>
+        <v>4750</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="K35" s="3">
-        <v>48500</v>
+        <v>42760</v>
       </c>
       <c r="L35" s="3">
-        <v>97000</v>
+        <v>291996</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="B36" s="3" t="s">
-        <v>512</v>
+        <v>598</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>513</v>
+        <v>599</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="F36" s="5">
-        <v>45233.708333333</v>
+        <v>45172.708333333</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="I36" s="3">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>547</v>
+        <v>600</v>
       </c>
       <c r="K36" s="3">
-        <v>43000</v>
+        <v>15000</v>
       </c>
       <c r="L36" s="3">
-        <v>34584</v>
+        <v>37184</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="3" t="s">
-        <v>302</v>
+        <v>601</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>303</v>
+        <v>602</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="F37" s="5">
-        <v>45165.708333333</v>
+        <v>45228.708333333</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
       </c>
       <c r="H37" s="3">
-        <v>3940</v>
+        <v>500</v>
       </c>
       <c r="I37" s="3">
-        <v>3940</v>
+        <v>500</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="K37" s="3">
-        <v>67946</v>
+        <v>2500</v>
       </c>
       <c r="L37" s="3">
-        <v>168122</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="B38" s="3" t="s">
-        <v>555</v>
+        <v>603</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>556</v>
+        <v>604</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="F38" s="5">
-        <v>45232.708333333</v>
+        <v>45223.708333333</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
       </c>
       <c r="H38" s="3">
-        <v>2917</v>
+        <v>2940</v>
       </c>
       <c r="I38" s="3">
-        <v>3000</v>
+        <v>2940</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>545</v>
+        <v>597</v>
       </c>
       <c r="K38" s="3">
-        <v>33834</v>
+        <v>5880</v>
       </c>
       <c r="L38" s="3">
-        <v>36166</v>
+        <v>29384</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="B39" s="3" t="s">
-        <v>558</v>
+        <v>605</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>559</v>
+        <v>606</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="F39" s="5">
-        <v>45225.708333333</v>
+        <v>45214.708333333</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
       </c>
       <c r="H39" s="3">
-        <v>550</v>
+        <v>5010</v>
       </c>
       <c r="I39" s="3">
-        <v>550</v>
+        <v>5010</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>552</v>
+        <v>607</v>
       </c>
       <c r="K39" s="3">
-        <v>7595</v>
+        <v>35010</v>
       </c>
       <c r="L39" s="3">
-        <v>8890</v>
+        <v>263635</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="B40" s="3" t="s">
-        <v>560</v>
+        <v>608</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>561</v>
+        <v>609</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="F40" s="5">
-        <v>44462.708333333</v>
+        <v>45223.708333333</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
       </c>
       <c r="H40" s="3">
-        <v>500</v>
+        <v>5340</v>
       </c>
       <c r="I40" s="3">
-        <v>500</v>
+        <v>6080</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="K40" s="3">
-        <v>2500</v>
+        <v>37480</v>
       </c>
       <c r="L40" s="3">
-        <v>1850</v>
+        <v>212113</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="B41" s="3" t="s">
-        <v>563</v>
+        <v>610</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="F41" s="5">
-        <v>45222.708333333</v>
+        <v>45229.708333333</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>3900</v>
+        <v>900</v>
       </c>
       <c r="I41" s="3">
-        <v>10000</v>
+        <v>900</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="K41" s="3">
-        <v>80000</v>
+        <v>900</v>
       </c>
       <c r="L41" s="3">
-        <v>36953</v>
+        <v>29100</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="B42" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F42" s="5">
-        <v>45227.708333333</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="K42" s="3">
-        <v>44000</v>
-      </c>
-      <c r="L42" s="3">
-        <v>196000</v>
+      <c r="A42" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="B43" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F43" s="5">
-        <v>45229.708333333</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>5120</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="K43" s="3">
-        <v>51200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>440320</v>
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="B44" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F44" s="5">
-        <v>45217.708333333</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>850</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="K44" s="3">
-        <v>5950</v>
-      </c>
-      <c r="L44" s="3">
-        <v>54880</v>
+      <c r="A44" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="B45" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F45" s="5">
-        <v>45233.708333333</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>6480</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="K45" s="3">
-        <v>82960</v>
-      </c>
-      <c r="L45" s="3">
-        <v>142560</v>
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="B46" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F46" s="5">
-        <v>45197.708333333</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>5190</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="K46" s="3">
-        <v>28990</v>
-      </c>
-      <c r="L46" s="3">
-        <v>406310</v>
+      <c r="A46" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="B47" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F47" s="5">
-        <v>45053.708333333</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="K47" s="3">
-        <v>7020</v>
-      </c>
-      <c r="L47" s="3">
-        <v>413820</v>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="B48" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F48" s="5">
-        <v>45235.708333333</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="K48" s="3">
-        <v>18200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>158920</v>
+      <c r="A48" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="B49" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F49" s="5">
-        <v>44994.708333333</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="K49" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>314870</v>
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="B50" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F50" s="5">
-        <v>45231.708333333</v>
-      </c>
-      <c r="G50" s="3">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
-        <v>4770</v>
-      </c>
-      <c r="I50" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="K50" s="3">
-        <v>64570</v>
-      </c>
-      <c r="L50" s="3">
-        <v>251059</v>
+      <c r="A50" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="B51" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F51" s="5">
-        <v>45234.708333333</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I51" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="K51" s="3">
-        <v>73966</v>
-      </c>
-      <c r="L51" s="3">
-        <v>210314</v>
+      <c r="B51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="B52" s="3" t="s">
-        <v>335</v>
+        <v>620</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>336</v>
+        <v>621</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F52" s="5">
-        <v>45224.708333333</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="F52" s="5"/>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>546</v>
+        <v>622</v>
       </c>
       <c r="K52" s="3">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>354676</v>
+        <v>212400</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="B53" s="3" t="s">
-        <v>341</v>
+        <v>623</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>342</v>
+        <v>624</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F53" s="5">
-        <v>45056.708333333</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="F53" s="5"/>
       <c r="G53" s="3">
         <v>0</v>
       </c>
       <c r="H53" s="3">
-        <v>3540</v>
+        <v>0</v>
       </c>
       <c r="I53" s="3">
-        <v>3540</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="K53" s="3">
-        <v>17700</v>
+        <v>0</v>
       </c>
       <c r="L53" s="3">
-        <v>123057</v>
+        <v>171000</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="B54" s="3" t="s">
-        <v>344</v>
+        <v>96</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>345</v>
+        <v>97</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F54" s="5">
-        <v>45215.708333333</v>
-      </c>
+      <c r="F54" s="5"/>
       <c r="G54" s="3">
+        <v>43702</v>
+      </c>
+      <c r="H54" s="3">
         <v>0</v>
       </c>
-      <c r="H54" s="3">
-        <v>3870</v>
-      </c>
       <c r="I54" s="3">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="K54" s="3">
-        <v>43220</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>118361</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="B55" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F55" s="5">
-        <v>45232.708333333</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3">
-        <v>3570</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="K55" s="3">
-        <v>24990</v>
-      </c>
-      <c r="L55" s="3">
-        <v>274570</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="B56" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F56" s="5">
-        <v>45231.708333333</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="K56" s="3">
-        <v>11360</v>
-      </c>
-      <c r="L56" s="3">
-        <v>238120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="B57" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F57" s="5">
-        <v>45232.708333333</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="K57" s="3">
-        <v>6000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>367680</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="B58" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F58" s="5">
-        <v>45234.708333333</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="K58" s="3">
-        <v>18800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>158320</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="B59" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F59" s="5">
-        <v>45235.708333333</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>4950</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="K59" s="3">
-        <v>34650</v>
-      </c>
-      <c r="L59" s="3">
-        <v>440550</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="B60" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F60" s="5">
-        <v>45232.708333333</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2550</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="K60" s="3">
-        <v>28000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>94400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="B61" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F61" s="5">
-        <v>45203.708333333</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="K61" s="3">
-        <v>56700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>699300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="B62" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F62" s="5">
-        <v>45205.708333333</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2060</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2060</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="K62" s="3">
-        <v>10300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>112775</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="B63" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F63" s="5">
-        <v>45229.708333333</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0</v>
-      </c>
-      <c r="H63" s="3">
-        <v>490</v>
-      </c>
-      <c r="I63" s="3">
-        <v>490</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="K63" s="3">
-        <v>3920</v>
-      </c>
-      <c r="L63" s="3">
-        <v>13507</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="B64" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F64" s="5">
-        <v>45223.708333333</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I64" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="K64" s="3">
-        <v>31166</v>
-      </c>
-      <c r="L64" s="3">
-        <v>155501</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="B65" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F65" s="5">
-        <v>45223.708333333</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0</v>
-      </c>
-      <c r="I65" s="3">
-        <v>4750</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="K65" s="3">
-        <v>42760</v>
-      </c>
-      <c r="L65" s="3">
-        <v>291996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="B66" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F66" s="5">
-        <v>45172.708333333</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="K66" s="3">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>37184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="B67" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F67" s="5">
-        <v>45228.708333333</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3">
-        <v>500</v>
-      </c>
-      <c r="I67" s="3">
-        <v>500</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="K67" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L67" s="3">
-        <v>5391</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="B68" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F68" s="5">
-        <v>45223.708333333</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="3">
-        <v>2940</v>
-      </c>
-      <c r="I68" s="3">
-        <v>2940</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="K68" s="3">
-        <v>5880</v>
-      </c>
-      <c r="L68" s="3">
-        <v>29384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="B69" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F69" s="5">
-        <v>45214.708333333</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0</v>
-      </c>
-      <c r="H69" s="3">
-        <v>5010</v>
-      </c>
-      <c r="I69" s="3">
-        <v>5010</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="K69" s="3">
-        <v>35010</v>
-      </c>
-      <c r="L69" s="3">
-        <v>263635</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="B70" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F70" s="5">
-        <v>45223.708333333</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>5340</v>
-      </c>
-      <c r="I70" s="3">
-        <v>6080</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="K70" s="3">
-        <v>37480</v>
-      </c>
-      <c r="L70" s="3">
-        <v>212113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="B71" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F71" s="5">
-        <v>45229.708333333</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0</v>
-      </c>
-      <c r="H71" s="3">
-        <v>900</v>
-      </c>
-      <c r="I71" s="3">
-        <v>900</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="K71" s="3">
-        <v>900</v>
-      </c>
-      <c r="L71" s="3">
-        <v>29100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="B73" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="B75" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="B77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="B79" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="B81" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="B82" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3">
-        <v>500</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="K82" s="3">
-        <v>0</v>
-      </c>
-      <c r="L82" s="3">
-        <v>18250</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="B83" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="3">
-        <v>19749</v>
-      </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>197494</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="B84" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="3">
-        <v>29229</v>
-      </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3">
-        <v>4860</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="K84" s="3">
-        <v>0</v>
-      </c>
-      <c r="L84" s="3">
-        <v>292293</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="B85" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="3">
-        <v>0</v>
-      </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3">
-        <v>0</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="K85" s="3">
-        <v>0</v>
-      </c>
-      <c r="L85" s="3">
-        <v>212400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="B86" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="3">
-        <v>0</v>
-      </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3">
-        <v>0</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="K86" s="3">
-        <v>0</v>
-      </c>
-      <c r="L86" s="3">
-        <v>171000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="B87" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="3">
-        <v>53152</v>
-      </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="K87" s="3">
-        <v>0</v>
-      </c>
-      <c r="L87" s="3">
-        <v>531520</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="B88" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F88" s="5"/>
-      <c r="G88" s="3">
-        <v>22536</v>
-      </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="K88" s="3">
-        <v>0</v>
-      </c>
-      <c r="L88" s="3">
-        <v>225360</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="B89" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F89" s="5"/>
-      <c r="G89" s="3">
-        <v>22000</v>
-      </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3">
-        <v>2750</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="B90" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="3">
-        <v>43702</v>
-      </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="K90" s="3">
-        <v>0</v>
-      </c>
-      <c r="L90" s="3">
         <v>437025</v>
       </c>
     </row>
